--- a/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>VOYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,221 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1705000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7540000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2240000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2349000</v>
       </c>
-      <c r="F8" s="3">
-        <v>2230000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2189000</v>
-      </c>
       <c r="H8" s="3">
+        <v>1848000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7191000</v>
+      </c>
+      <c r="J8" s="3">
         <v>2259000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2114000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1981000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1281400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2185000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2192000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2059000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>8822000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2541200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>199000</v>
+      </c>
+      <c r="F9" s="3">
         <v>134000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>67000</v>
       </c>
-      <c r="F9" s="3">
-        <v>85000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>108000</v>
-      </c>
       <c r="H9" s="3">
+        <v>57000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>233000</v>
+      </c>
+      <c r="J9" s="3">
         <v>86000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>74000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>100000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>-34400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>209000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>195000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>64000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>415000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>180700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1629000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7341000</v>
+      </c>
+      <c r="F10" s="3">
         <v>2106000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2282000</v>
       </c>
-      <c r="F10" s="3">
-        <v>2145000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2081000</v>
-      </c>
       <c r="H10" s="3">
+        <v>1791000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>6958000</v>
+      </c>
+      <c r="J10" s="3">
         <v>2173000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2040000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1881000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1315800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1976000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1997000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1995000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>8407000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2360500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,8 +896,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -916,8 +942,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,52 +992,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>64000</v>
+      </c>
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
-        <v>33000</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>26000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>28000</v>
+      </c>
+      <c r="J14" s="3">
         <v>7000</v>
       </c>
-      <c r="H14" s="3">
-        <v>7000</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>14000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>15800</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>1000</v>
       </c>
       <c r="N14" s="3">
         <v>1000</v>
       </c>
       <c r="O14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q14" s="3">
         <v>34000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,8 +1092,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1113,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1618000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6766000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2038000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1993000</v>
       </c>
-      <c r="F17" s="3">
-        <v>2006000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1937000</v>
-      </c>
       <c r="H17" s="3">
+        <v>1699000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6401000</v>
+      </c>
+      <c r="J17" s="3">
         <v>2018000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1811000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1905000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1000900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2078000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1965000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1883000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8422000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2825000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>774000</v>
+      </c>
+      <c r="F18" s="3">
         <v>202000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>356000</v>
       </c>
-      <c r="F18" s="3">
-        <v>224000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>252000</v>
-      </c>
       <c r="H18" s="3">
+        <v>149000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>790000</v>
+      </c>
+      <c r="J18" s="3">
         <v>241000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>303000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>76000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>280500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>107000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>227000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>176000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>400000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-283800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,8 +1233,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1213,8 +1279,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1257,140 +1329,164 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>214000</v>
+      </c>
+      <c r="F22" s="3">
         <v>59000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>58000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>47000</v>
       </c>
-      <c r="G22" s="3">
-        <v>90000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>55000</v>
-      </c>
       <c r="I22" s="3">
-        <v>62000</v>
+        <v>262000</v>
       </c>
       <c r="J22" s="3">
         <v>55000</v>
       </c>
       <c r="K22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="M22" s="3">
         <v>62300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>67000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>72000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>63000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>390000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>72100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>560000</v>
+      </c>
+      <c r="F23" s="3">
         <v>143000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>298000</v>
       </c>
-      <c r="F23" s="3">
-        <v>177000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>162000</v>
-      </c>
       <c r="H23" s="3">
+        <v>102000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>528000</v>
+      </c>
+      <c r="J23" s="3">
         <v>186000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>241000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>21000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>218200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>40000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>155000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>113000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>10000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-355900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-205000</v>
+      </c>
+      <c r="F24" s="3">
         <v>4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>44000</v>
       </c>
-      <c r="F24" s="3">
-        <v>25000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-23000</v>
-      </c>
       <c r="H24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>29000</v>
+      </c>
+      <c r="J24" s="3">
         <v>21000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>45000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>42000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-40000</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>93000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-29000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-119400</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1529,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>765000</v>
+      </c>
+      <c r="F26" s="3">
         <v>139000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>254000</v>
       </c>
-      <c r="F26" s="3">
-        <v>152000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>185000</v>
-      </c>
       <c r="H26" s="3">
+        <v>93000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>499000</v>
+      </c>
+      <c r="J26" s="3">
         <v>165000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>196000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>17000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>176200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>80000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>155000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>20000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>39000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-236500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>687000</v>
+      </c>
+      <c r="F27" s="3">
         <v>106000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>229000</v>
       </c>
-      <c r="F27" s="3">
-        <v>143000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>129000</v>
-      </c>
       <c r="H27" s="3">
+        <v>84000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>354000</v>
+      </c>
+      <c r="J27" s="3">
         <v>142000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>138000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>17000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>94700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>15000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>103000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>19000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>10000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,52 +1679,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-128000</v>
       </c>
       <c r="E29" s="3">
+        <v>-1066000</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-3000</v>
       </c>
-      <c r="F29" s="3">
-        <v>-79000</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-8000</v>
-      </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-20000</v>
       </c>
       <c r="I29" s="3">
+        <v>521000</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>28000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>429000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-3259000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>134000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>64000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-162000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-337000</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1779,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,8 +1829,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1741,52 +1879,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-379000</v>
+      </c>
+      <c r="F33" s="3">
         <v>106000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>226000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>64000</v>
       </c>
-      <c r="G33" s="3">
-        <v>121000</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>875000</v>
+      </c>
+      <c r="J33" s="3">
         <v>142000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>166000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>446000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3164300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>149000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>167000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-143000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-327000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1979,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-379000</v>
+      </c>
+      <c r="F35" s="3">
         <v>106000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>226000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>64000</v>
       </c>
-      <c r="G35" s="3">
-        <v>121000</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>875000</v>
+      </c>
+      <c r="J35" s="3">
         <v>142000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>166000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>446000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3164300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>149000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>167000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-143000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-327000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2108,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,52 +2128,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1085000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1249000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1450000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1541000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1340000</v>
       </c>
-      <c r="G41" s="3">
-        <v>1869000</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>1568000</v>
+      </c>
+      <c r="J41" s="3">
         <v>1885000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1620000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1597000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1435000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2072900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2713300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2531300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2229000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2951600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2046,8 +2224,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2090,8 +2274,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2134,8 +2324,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2178,8 +2374,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2222,140 +2424,164 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>51772000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>52700000</v>
+      </c>
+      <c r="F47" s="3">
         <v>67153000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>65417000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>64204000</v>
       </c>
-      <c r="G47" s="3">
-        <v>62012000</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
+        <v>49918000</v>
+      </c>
+      <c r="J47" s="3">
         <v>62277000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>62241000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>63014000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>64644000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>93681000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>90575600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>89116700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>61153000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>93051100</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3">
-        <v>107000</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
+      <c r="M48" s="3">
+        <v>107000</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O48" s="3">
-        <v>112300</v>
+      <c r="O48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>112300</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>186000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>196000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>197800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>208000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>219500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>227300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2624,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2674,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20902000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>21527000</v>
+      </c>
+      <c r="F52" s="3">
         <v>401000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>576000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>864000</v>
       </c>
-      <c r="G52" s="3">
-        <v>1157000</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
+        <v>21655000</v>
+      </c>
+      <c r="J52" s="3">
         <v>1122000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1266000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>58102000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>59833000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1663700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1756900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2055700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>66368800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1128100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2774,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>155732000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>169051000</v>
+      </c>
+      <c r="F54" s="3">
         <v>166850000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>165162000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>161985000</v>
       </c>
-      <c r="G54" s="3">
-        <v>154682000</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
+        <v>155430000</v>
+      </c>
+      <c r="J54" s="3">
         <v>165036000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>162740000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>219824000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>222532000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>226643900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>219838800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>217025500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>214585000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>218622200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2848,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,8 +2868,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2654,8 +2914,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2663,13 +2929,13 @@
         <v>1000</v>
       </c>
       <c r="E58" s="3">
-        <v>97000</v>
+        <v>1000</v>
       </c>
       <c r="F58" s="3">
         <v>1000</v>
       </c>
       <c r="G58" s="3">
-        <v>1000</v>
+        <v>97000</v>
       </c>
       <c r="H58" s="3">
         <v>1000</v>
@@ -2678,72 +2944,84 @@
         <v>1000</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>337000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>336600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>735900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>735500</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>71002000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>83043000</v>
+      </c>
+      <c r="F59" s="3">
         <v>82049000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>81887000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>79627000</v>
       </c>
-      <c r="G59" s="3">
-        <v>73049000</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>71297000</v>
+      </c>
+      <c r="J59" s="3">
         <v>83034000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>80599000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>79668000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>79471000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>111603200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>105725300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>103261300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>67883100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>101627000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2786,96 +3064,114 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3042000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3042000</v>
+      </c>
+      <c r="F61" s="3">
         <v>3041000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3041000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3136000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3136000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3459000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3458000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3458000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3123000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3122200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2726200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2725700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3550000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>3548500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18414000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>18966000</v>
+      </c>
+      <c r="F62" s="3">
         <v>409000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>445000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>465000</v>
       </c>
-      <c r="G62" s="3">
-        <v>551000</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
+        <v>18454000</v>
+      </c>
+      <c r="J62" s="3">
         <v>516000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>527000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>56998000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>58827000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>542200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>636800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>656000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>60250000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>631400</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3214,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3264,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3314,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>148305000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>159643000</v>
+      </c>
+      <c r="F66" s="3">
         <v>156299000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>155098000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>152920000</v>
       </c>
-      <c r="G66" s="3">
-        <v>146469000</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
+        <v>147217000</v>
+      </c>
+      <c r="J66" s="3">
         <v>156513000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>154280000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>210446000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>212523000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>212990900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>206486600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>204135100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>201590000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>203416200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3388,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3434,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3484,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,8 +3534,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3584,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4766000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4649000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-11665000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-11785000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-12011000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-11732000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-11853000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-11995000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-12161000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-12719000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-9655600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-9804200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-9971400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-9742000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-9310300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3684,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3734,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3784,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7427000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9408000</v>
+      </c>
+      <c r="F76" s="3">
         <v>10551000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>10064000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>9065000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>8213000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>8523000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>8460000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>9378000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>10009000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>13653000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>13352200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>12890400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>12995000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>15206000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3884,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-379000</v>
+      </c>
+      <c r="F81" s="3">
         <v>106000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>226000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>64000</v>
       </c>
-      <c r="G81" s="3">
-        <v>121000</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>875000</v>
+      </c>
+      <c r="J81" s="3">
         <v>142000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>166000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>446000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3164300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>149000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>167000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-143000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-327000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,8 +4013,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3663,8 +4059,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +4109,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +4159,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4209,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4259,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4309,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1310000</v>
+      </c>
+      <c r="F89" s="3">
         <v>302000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>418000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>131000</v>
       </c>
-      <c r="G89" s="3">
-        <v>234000</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>1868000</v>
+      </c>
+      <c r="J89" s="3">
         <v>580000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>653000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>401000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>456000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>570000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>605800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-49800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3591000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>819700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,8 +4383,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3971,26 +4411,32 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-9700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-15700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-10400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-66700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4479,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4529,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-811000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1255000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-954000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>117000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-44000</v>
       </c>
-      <c r="G94" s="3">
-        <v>-333000</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>-282000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-36000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-149000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>236000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-145000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1581300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-892500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>190800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3683000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1924000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,8 +4603,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4148,43 +4614,49 @@
         <v>-20000</v>
       </c>
       <c r="E96" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-2000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-1000</v>
       </c>
-      <c r="G96" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-2000</v>
-      </c>
       <c r="I96" s="3">
-        <v>-1000</v>
+        <v>-6000</v>
       </c>
       <c r="J96" s="3">
         <v>-2000</v>
       </c>
       <c r="K96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-2500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-1700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-1900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-8000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4699,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4749,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,52 +4799,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>727000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-121000</v>
+      </c>
+      <c r="F100" s="3">
         <v>546000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-86000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-592000</v>
       </c>
-      <c r="G100" s="3">
-        <v>-152000</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>-1764000</v>
+      </c>
+      <c r="J100" s="3">
         <v>-289000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-926000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-397000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-562400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>414200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>556600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-753400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>495400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4403,48 +4899,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-106000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>449000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-505000</v>
       </c>
-      <c r="G102" s="3">
-        <v>-251000</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>-178000</v>
+      </c>
+      <c r="J102" s="3">
         <v>255000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-422000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>240000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-251200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-600500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>269100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-612400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>398000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1033000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>VOYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,233 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1713000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1705000</v>
       </c>
-      <c r="E8" s="3">
-        <v>7540000</v>
-      </c>
       <c r="F8" s="3">
+        <v>721000</v>
+      </c>
+      <c r="G8" s="3">
         <v>2240000</v>
       </c>
-      <c r="G8" s="3">
-        <v>2349000</v>
-      </c>
       <c r="H8" s="3">
+        <v>1972000</v>
+      </c>
+      <c r="I8" s="3">
         <v>1848000</v>
       </c>
-      <c r="I8" s="3">
-        <v>7191000</v>
-      </c>
       <c r="J8" s="3">
+        <v>837000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2259000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2114000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1981000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1281400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2185000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2192000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2059000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8822000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2541200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E9" s="3">
         <v>76000</v>
       </c>
-      <c r="E9" s="3">
-        <v>199000</v>
-      </c>
       <c r="F9" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="G9" s="3">
         <v>134000</v>
       </c>
-      <c r="G9" s="3">
-        <v>67000</v>
-      </c>
       <c r="H9" s="3">
+        <v>43000</v>
+      </c>
+      <c r="I9" s="3">
         <v>57000</v>
       </c>
-      <c r="I9" s="3">
-        <v>233000</v>
-      </c>
       <c r="J9" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="K9" s="3">
         <v>86000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>74000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>100000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>-34400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>209000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>195000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>64000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>415000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>180700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1694000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1629000</v>
       </c>
-      <c r="E10" s="3">
-        <v>7341000</v>
-      </c>
       <c r="F10" s="3">
+        <v>808000</v>
+      </c>
+      <c r="G10" s="3">
         <v>2106000</v>
       </c>
-      <c r="G10" s="3">
-        <v>2282000</v>
-      </c>
       <c r="H10" s="3">
+        <v>1929000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1791000</v>
       </c>
-      <c r="I10" s="3">
-        <v>6958000</v>
-      </c>
       <c r="J10" s="3">
+        <v>864000</v>
+      </c>
+      <c r="K10" s="3">
         <v>2173000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2040000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1881000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1315800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1976000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1997000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1995000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8407000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2360500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +910,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,8 +961,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,43 +1014,46 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E14" s="3">
         <v>20000</v>
       </c>
-      <c r="E14" s="3">
-        <v>64000</v>
-      </c>
       <c r="F14" s="3">
-        <v>3000</v>
+        <v>25000</v>
       </c>
       <c r="G14" s="3">
         <v>3000</v>
       </c>
       <c r="H14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I14" s="3">
         <v>26000</v>
       </c>
-      <c r="I14" s="3">
-        <v>28000</v>
-      </c>
       <c r="J14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K14" s="3">
         <v>7000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15800</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1000</v>
       </c>
       <c r="O14" s="3">
         <v>1000</v>
@@ -1043,13 +1062,16 @@
         <v>1000</v>
       </c>
       <c r="Q14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R14" s="3">
         <v>34000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1098,8 +1120,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1711000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1618000</v>
       </c>
-      <c r="E17" s="3">
-        <v>6766000</v>
-      </c>
       <c r="F17" s="3">
+        <v>729000</v>
+      </c>
+      <c r="G17" s="3">
         <v>2038000</v>
       </c>
-      <c r="G17" s="3">
-        <v>1993000</v>
-      </c>
       <c r="H17" s="3">
+        <v>1671000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1699000</v>
       </c>
-      <c r="I17" s="3">
-        <v>6401000</v>
-      </c>
       <c r="J17" s="3">
+        <v>667000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2018000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1811000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1905000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2078000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1965000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1883000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8422000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2825000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="3">
         <v>87000</v>
       </c>
-      <c r="E18" s="3">
-        <v>774000</v>
-      </c>
       <c r="F18" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="G18" s="3">
         <v>202000</v>
       </c>
-      <c r="G18" s="3">
-        <v>356000</v>
-      </c>
       <c r="H18" s="3">
+        <v>301000</v>
+      </c>
+      <c r="I18" s="3">
         <v>149000</v>
       </c>
-      <c r="I18" s="3">
-        <v>790000</v>
-      </c>
       <c r="J18" s="3">
+        <v>170000</v>
+      </c>
+      <c r="K18" s="3">
         <v>241000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>303000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>76000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>280500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>107000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>227000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>176000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>400000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-283800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,8 +1267,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1285,8 +1318,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1335,158 +1371,170 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E22" s="3">
         <v>43000</v>
       </c>
-      <c r="E22" s="3">
-        <v>214000</v>
-      </c>
       <c r="F22" s="3">
+        <v>50000</v>
+      </c>
+      <c r="G22" s="3">
         <v>59000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>58000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>47000</v>
       </c>
-      <c r="I22" s="3">
-        <v>262000</v>
-      </c>
       <c r="J22" s="3">
+        <v>90000</v>
+      </c>
+      <c r="K22" s="3">
         <v>55000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>62000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>55000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>62300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>67000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>72000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>63000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>390000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>72100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E23" s="3">
         <v>44000</v>
       </c>
-      <c r="E23" s="3">
-        <v>560000</v>
-      </c>
       <c r="F23" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="G23" s="3">
         <v>143000</v>
       </c>
-      <c r="G23" s="3">
-        <v>298000</v>
-      </c>
       <c r="H23" s="3">
+        <v>243000</v>
+      </c>
+      <c r="I23" s="3">
         <v>102000</v>
       </c>
-      <c r="I23" s="3">
-        <v>528000</v>
-      </c>
       <c r="J23" s="3">
+        <v>80000</v>
+      </c>
+      <c r="K23" s="3">
         <v>186000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>241000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>218200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>40000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>155000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>113000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-355900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-6000</v>
       </c>
-      <c r="E24" s="3">
-        <v>-205000</v>
-      </c>
       <c r="F24" s="3">
+        <v>-278000</v>
+      </c>
+      <c r="G24" s="3">
         <v>4000</v>
       </c>
-      <c r="G24" s="3">
-        <v>44000</v>
-      </c>
       <c r="H24" s="3">
+        <v>33000</v>
+      </c>
+      <c r="I24" s="3">
         <v>9000</v>
       </c>
-      <c r="I24" s="3">
-        <v>29000</v>
-      </c>
       <c r="J24" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="K24" s="3">
         <v>21000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>45000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>42000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-40000</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>93000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-29000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-119400</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E26" s="3">
         <v>50000</v>
       </c>
-      <c r="E26" s="3">
-        <v>765000</v>
-      </c>
       <c r="F26" s="3">
+        <v>220000</v>
+      </c>
+      <c r="G26" s="3">
         <v>139000</v>
       </c>
-      <c r="G26" s="3">
-        <v>254000</v>
-      </c>
       <c r="H26" s="3">
+        <v>210000</v>
+      </c>
+      <c r="I26" s="3">
         <v>93000</v>
       </c>
-      <c r="I26" s="3">
-        <v>499000</v>
-      </c>
       <c r="J26" s="3">
+        <v>121000</v>
+      </c>
+      <c r="K26" s="3">
         <v>165000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>196000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>176200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>80000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>155000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>20000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>39000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-236500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E27" s="3">
         <v>30000</v>
       </c>
-      <c r="E27" s="3">
-        <v>687000</v>
-      </c>
       <c r="F27" s="3">
+        <v>209000</v>
+      </c>
+      <c r="G27" s="3">
         <v>106000</v>
       </c>
-      <c r="G27" s="3">
-        <v>229000</v>
-      </c>
       <c r="H27" s="3">
+        <v>184000</v>
+      </c>
+      <c r="I27" s="3">
         <v>84000</v>
       </c>
-      <c r="I27" s="3">
-        <v>354000</v>
-      </c>
       <c r="J27" s="3">
+        <v>57000</v>
+      </c>
+      <c r="K27" s="3">
         <v>142000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>138000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>94700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>103000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>19000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,58 +1742,64 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-128000</v>
       </c>
-      <c r="E29" s="3">
-        <v>-1066000</v>
-      </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-984000</v>
       </c>
       <c r="G29" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>42000</v>
+      </c>
+      <c r="I29" s="3">
         <v>-20000</v>
       </c>
-      <c r="I29" s="3">
-        <v>521000</v>
-      </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>64000</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>28000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>429000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-3259000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>134000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>64000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-162000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-337000</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,8 +1901,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1885,58 +1954,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-98000</v>
       </c>
-      <c r="E33" s="3">
-        <v>-379000</v>
-      </c>
       <c r="F33" s="3">
+        <v>-775000</v>
+      </c>
+      <c r="G33" s="3">
         <v>106000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>226000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>64000</v>
       </c>
-      <c r="I33" s="3">
-        <v>875000</v>
-      </c>
       <c r="J33" s="3">
+        <v>121000</v>
+      </c>
+      <c r="K33" s="3">
         <v>142000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>166000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>446000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3164300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>149000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>167000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-143000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-327000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-98000</v>
       </c>
-      <c r="E35" s="3">
-        <v>-379000</v>
-      </c>
       <c r="F35" s="3">
+        <v>-775000</v>
+      </c>
+      <c r="G35" s="3">
         <v>106000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>226000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>64000</v>
       </c>
-      <c r="I35" s="3">
-        <v>875000</v>
-      </c>
       <c r="J35" s="3">
+        <v>121000</v>
+      </c>
+      <c r="K35" s="3">
         <v>142000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>166000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>446000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3164300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>149000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>167000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-143000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-327000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,58 +2215,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1149000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1085000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1249000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1450000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1541000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1340000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1568000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1885000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1620000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1597000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1435000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2072900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2713300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2531300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2229000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2951600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2230,8 +2319,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2280,8 +2372,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2330,8 +2425,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2380,8 +2478,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2430,58 +2531,64 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>54264000</v>
+      </c>
+      <c r="E47" s="3">
         <v>51772000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>52700000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>67153000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>65417000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>64204000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>49918000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>62277000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>62241000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>63014000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>64644000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>93681000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>90575600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>89116700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>61153000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>93051100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2506,17 +2613,17 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="3">
         <v>107000</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
@@ -2524,14 +2631,17 @@
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="3">
         <v>112300</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2556,32 +2666,35 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3">
         <v>186000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>196000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>197800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>208000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>219500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>227300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2796,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21249000</v>
+      </c>
+      <c r="E52" s="3">
         <v>20902000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21527000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>401000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>576000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>864000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>21655000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1122000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1266000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>58102000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>59833000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1663700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1756900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2055700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>66368800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1128100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>166934000</v>
+      </c>
+      <c r="E54" s="3">
         <v>155732000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>169051000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>166850000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>165162000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>161985000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>155430000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>165036000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>162740000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>219824000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>222532000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>226643900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>219838800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>217025500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>214585000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>218622200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,8 +2999,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2920,8 +3050,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2935,10 +3068,10 @@
         <v>1000</v>
       </c>
       <c r="G58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H58" s="3">
         <v>97000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1000</v>
       </c>
       <c r="I58" s="3">
         <v>1000</v>
@@ -2950,78 +3083,84 @@
         <v>1000</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>337000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>336600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>735900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>735500</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>80129000</v>
+      </c>
+      <c r="E59" s="3">
         <v>71002000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>83043000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>82049000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>81887000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>79627000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>71297000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>83034000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>80599000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>79668000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>79471000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>111603200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>105725300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>103261300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>67883100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>101627000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3070,108 +3209,117 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3042000</v>
+        <v>3043000</v>
       </c>
       <c r="E61" s="3">
         <v>3042000</v>
       </c>
       <c r="F61" s="3">
-        <v>3041000</v>
+        <v>3042000</v>
       </c>
       <c r="G61" s="3">
         <v>3041000</v>
       </c>
       <c r="H61" s="3">
-        <v>3136000</v>
+        <v>3041000</v>
       </c>
       <c r="I61" s="3">
         <v>3136000</v>
       </c>
       <c r="J61" s="3">
+        <v>3136000</v>
+      </c>
+      <c r="K61" s="3">
         <v>3459000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>3458000</v>
       </c>
       <c r="L61" s="3">
         <v>3458000</v>
       </c>
       <c r="M61" s="3">
+        <v>3458000</v>
+      </c>
+      <c r="N61" s="3">
         <v>3123000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3122200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2726200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2725700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3550000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3548500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18465000</v>
+      </c>
+      <c r="E62" s="3">
         <v>18414000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18966000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>409000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>445000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>465000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18454000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>516000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>527000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>56998000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>58827000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>542200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>636800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>656000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>60250000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>631400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>157386000</v>
+      </c>
+      <c r="E66" s="3">
         <v>148305000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>159643000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>156299000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>155098000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>152920000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>147217000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>156513000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>154280000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>210446000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>212523000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>212990900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>206486600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>204135100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>201590000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>203416200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4833000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4766000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4649000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11665000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11785000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12011000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11732000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11853000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11995000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12161000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12719000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9655600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9804200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9971400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9742000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9310300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9548000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7427000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9408000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10551000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10064000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9065000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8213000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8523000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8460000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9378000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10009000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13653000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13352200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12890400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12995000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15206000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-98000</v>
       </c>
-      <c r="E81" s="3">
-        <v>-379000</v>
-      </c>
       <c r="F81" s="3">
+        <v>-775000</v>
+      </c>
+      <c r="G81" s="3">
         <v>106000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>226000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>64000</v>
       </c>
-      <c r="I81" s="3">
-        <v>875000</v>
-      </c>
       <c r="J81" s="3">
+        <v>121000</v>
+      </c>
+      <c r="K81" s="3">
         <v>142000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>166000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>446000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3164300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>149000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>167000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-143000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-327000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,8 +4212,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4065,8 +4263,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>508000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-76000</v>
       </c>
-      <c r="E89" s="3">
-        <v>1310000</v>
-      </c>
       <c r="F89" s="3">
+        <v>459000</v>
+      </c>
+      <c r="G89" s="3">
         <v>302000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>418000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>131000</v>
       </c>
-      <c r="I89" s="3">
-        <v>1868000</v>
-      </c>
       <c r="J89" s="3">
+        <v>234000</v>
+      </c>
+      <c r="K89" s="3">
         <v>580000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>653000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>401000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>456000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>570000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>605800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-49800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3591000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>819700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,8 +4604,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4417,26 +4637,29 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-66700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-811000</v>
       </c>
-      <c r="E94" s="3">
-        <v>-1255000</v>
-      </c>
       <c r="F94" s="3">
+        <v>-374000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-954000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>117000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-44000</v>
       </c>
-      <c r="I94" s="3">
-        <v>-282000</v>
-      </c>
       <c r="J94" s="3">
+        <v>-333000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-36000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-149000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>236000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-145000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1581300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-892500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>190800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3683000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1924000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,58 +4837,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-20000</v>
       </c>
-      <c r="E96" s="3">
-        <v>-44000</v>
-      </c>
       <c r="F96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-20000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1000</v>
       </c>
-      <c r="I96" s="3">
-        <v>-6000</v>
-      </c>
       <c r="J96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1700</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-1900</v>
       </c>
       <c r="P96" s="3">
         <v>-1900</v>
       </c>
       <c r="Q96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="R96" s="3">
         <v>-8000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,58 +5047,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="E100" s="3">
         <v>727000</v>
       </c>
-      <c r="E100" s="3">
-        <v>-121000</v>
-      </c>
       <c r="F100" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G100" s="3">
         <v>546000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-86000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-592000</v>
       </c>
-      <c r="I100" s="3">
-        <v>-1764000</v>
-      </c>
       <c r="J100" s="3">
+        <v>-152000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-289000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-926000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-397000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-562400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>414200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>556600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-753400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>495400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4905,54 +5153,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-160000</v>
       </c>
-      <c r="E102" s="3">
-        <v>-66000</v>
-      </c>
       <c r="F102" s="3">
+        <v>96000</v>
+      </c>
+      <c r="G102" s="3">
         <v>-106000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>449000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-505000</v>
       </c>
-      <c r="I102" s="3">
-        <v>-178000</v>
-      </c>
       <c r="J102" s="3">
+        <v>-251000</v>
+      </c>
+      <c r="K102" s="3">
         <v>255000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-422000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>240000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-251200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>269100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-612400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>398000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1033000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>VOYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,245 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2081000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1713000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1705000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>721000</v>
       </c>
-      <c r="G8" s="3">
-        <v>2240000</v>
-      </c>
       <c r="H8" s="3">
+        <v>1878000</v>
+      </c>
+      <c r="I8" s="3">
         <v>1972000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1848000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>837000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2259000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2114000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1981000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1281400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2185000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2192000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2059000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8822000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2541200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E9" s="3">
         <v>19000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>76000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>-87000</v>
       </c>
-      <c r="G9" s="3">
-        <v>134000</v>
-      </c>
       <c r="H9" s="3">
+        <v>36000</v>
+      </c>
+      <c r="I9" s="3">
         <v>43000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>57000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>-27000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>86000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>74000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>100000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>-34400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>209000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>195000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>64000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>415000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>180700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1840000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1694000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1629000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>808000</v>
       </c>
-      <c r="G10" s="3">
-        <v>2106000</v>
-      </c>
       <c r="H10" s="3">
+        <v>1842000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1929000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1791000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>864000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2173000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2040000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1881000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1315800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1976000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1997000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1995000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8407000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2360500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +923,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,46 +1033,49 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="3">
         <v>50000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>20000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>25000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3000</v>
       </c>
       <c r="H14" s="3">
         <v>3000</v>
       </c>
       <c r="I14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J14" s="3">
         <v>26000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15800</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1000</v>
       </c>
       <c r="P14" s="3">
         <v>1000</v>
@@ -1065,13 +1084,16 @@
         <v>1000</v>
       </c>
       <c r="R14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S14" s="3">
         <v>34000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1123,8 +1145,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2181000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1711000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1618000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>729000</v>
       </c>
-      <c r="G17" s="3">
-        <v>2038000</v>
-      </c>
       <c r="H17" s="3">
+        <v>1670000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1671000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1699000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>667000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2018000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1811000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1905000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2078000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1965000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1883000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8422000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2825000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>87000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8000</v>
       </c>
-      <c r="G18" s="3">
-        <v>202000</v>
-      </c>
       <c r="H18" s="3">
+        <v>208000</v>
+      </c>
+      <c r="I18" s="3">
         <v>301000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>149000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>170000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>241000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>303000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>76000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>280500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>107000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>227000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>176000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>400000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-283800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,8 +1300,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1321,8 +1354,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1374,167 +1410,179 @@
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E22" s="3">
         <v>50000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>43000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>50000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>59000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>58000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>47000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>90000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>55000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>62000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>55000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>62300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>67000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>72000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>63000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>390000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>72100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-48000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>44000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-58000</v>
       </c>
-      <c r="G23" s="3">
-        <v>143000</v>
-      </c>
       <c r="H23" s="3">
+        <v>149000</v>
+      </c>
+      <c r="I23" s="3">
         <v>243000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>102000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>80000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>186000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>241000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>218200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>40000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>155000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>113000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-355900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E24" s="3">
         <v>5000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-6000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-278000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>33000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>21000</v>
+      </c>
+      <c r="M24" s="3">
+        <v>45000</v>
+      </c>
+      <c r="N24" s="3">
         <v>4000</v>
       </c>
-      <c r="H24" s="3">
-        <v>33000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-41000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>21000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>45000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>4000</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>42000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-40000</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>93000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-29000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-119400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-53000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>50000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>220000</v>
       </c>
-      <c r="G26" s="3">
-        <v>139000</v>
-      </c>
       <c r="H26" s="3">
+        <v>144000</v>
+      </c>
+      <c r="I26" s="3">
         <v>210000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>93000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>121000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>165000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>196000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>176200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>80000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>155000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>20000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>39000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-236500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-193000</v>
+      </c>
+      <c r="E27" s="3">
         <v>22000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>30000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>209000</v>
       </c>
-      <c r="G27" s="3">
-        <v>106000</v>
-      </c>
       <c r="H27" s="3">
+        <v>111000</v>
+      </c>
+      <c r="I27" s="3">
         <v>184000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>84000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>57000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>142000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>138000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>94700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>103000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,61 +1802,67 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-93000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-128000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-984000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I29" s="3">
         <v>42000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-20000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>64000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>28000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>429000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-3259000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>134000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>64000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-162000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-337000</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,8 +1970,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1957,61 +2026,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-333000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-71000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-98000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-775000</v>
       </c>
-      <c r="G33" s="3">
-        <v>106000</v>
-      </c>
       <c r="H33" s="3">
+        <v>107000</v>
+      </c>
+      <c r="I33" s="3">
         <v>226000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>64000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>121000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>142000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>166000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>446000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3164300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>149000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>167000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-143000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-327000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-333000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-71000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-98000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-775000</v>
       </c>
-      <c r="G35" s="3">
-        <v>106000</v>
-      </c>
       <c r="H35" s="3">
+        <v>107000</v>
+      </c>
+      <c r="I35" s="3">
         <v>226000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>64000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>121000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>142000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>166000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>446000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3164300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>149000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>167000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-143000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-327000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,61 +2301,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1136000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1149000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1085000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1249000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1450000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1541000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1340000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1568000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1885000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1620000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1597000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1435000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2072900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2713300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2531300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2229000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2951600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2322,8 +2411,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2375,8 +2467,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2428,8 +2523,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2481,8 +2579,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2534,61 +2635,67 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>54357000</v>
+      </c>
+      <c r="E47" s="3">
         <v>54264000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>51772000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>52700000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>67153000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>65417000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>64204000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>49918000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>62277000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>62241000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>63014000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>64644000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>93681000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>90575600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>89116700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>61153000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>93051100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2616,17 +2723,17 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>107000</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
@@ -2634,14 +2741,17 @@
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
         <v>112300</v>
       </c>
-      <c r="S48" s="3" t="s">
+      <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2669,32 +2779,35 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3">
         <v>186000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>196000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>197800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>208000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>219500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>227300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +2915,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21494000</v>
+      </c>
+      <c r="E52" s="3">
         <v>21249000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20902000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21527000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>401000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>576000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>864000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>21655000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1122000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1266000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>58102000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>59833000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1663700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1756900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2055700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>66368800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1128100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>171466000</v>
+      </c>
+      <c r="E54" s="3">
         <v>166934000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>155732000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>169051000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>166850000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>165162000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>161985000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>155430000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>165036000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>162740000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>219824000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>222532000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>226643900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>219838800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>217025500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>214585000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>218622200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,8 +3129,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3053,8 +3183,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3071,10 +3204,10 @@
         <v>1000</v>
       </c>
       <c r="H58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I58" s="3">
         <v>97000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1000</v>
       </c>
       <c r="J58" s="3">
         <v>1000</v>
@@ -3086,81 +3219,87 @@
         <v>1000</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>337000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>336600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>735900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>735500</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>83454000</v>
+      </c>
+      <c r="E59" s="3">
         <v>80129000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>71002000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>83043000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>82049000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>81887000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>79627000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>71297000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>83034000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>80599000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>79668000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>79471000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>111603200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>105725300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>103261300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>67883100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>101627000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3212,8 +3351,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3221,105 +3363,111 @@
         <v>3043000</v>
       </c>
       <c r="E61" s="3">
-        <v>3042000</v>
+        <v>3043000</v>
       </c>
       <c r="F61" s="3">
         <v>3042000</v>
       </c>
       <c r="G61" s="3">
-        <v>3041000</v>
+        <v>3042000</v>
       </c>
       <c r="H61" s="3">
         <v>3041000</v>
       </c>
       <c r="I61" s="3">
-        <v>3136000</v>
+        <v>3041000</v>
       </c>
       <c r="J61" s="3">
         <v>3136000</v>
       </c>
       <c r="K61" s="3">
+        <v>3136000</v>
+      </c>
+      <c r="L61" s="3">
         <v>3459000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>3458000</v>
       </c>
       <c r="M61" s="3">
         <v>3458000</v>
       </c>
       <c r="N61" s="3">
+        <v>3458000</v>
+      </c>
+      <c r="O61" s="3">
         <v>3123000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3122200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2726200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2725700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3550000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3548500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18607000</v>
+      </c>
+      <c r="E62" s="3">
         <v>18465000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18414000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18966000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>409000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>445000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>465000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18454000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>516000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>527000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>56998000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>58827000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>542200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>636800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>656000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>60250000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>631400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>161809000</v>
+      </c>
+      <c r="E66" s="3">
         <v>157386000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>148305000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>159643000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>156299000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>155098000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>152920000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>147217000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>156513000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>154280000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>210446000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>212523000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>212990900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>206486600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>204135100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>201590000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>203416200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3821,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +3933,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5152000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4833000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4766000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4649000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11665000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11785000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12011000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11732000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11853000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11995000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12161000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12719000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9655600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9804200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9971400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9742000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9310300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9657000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9548000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7427000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9408000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10551000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10064000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9065000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8213000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8523000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8460000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9378000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10009000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13653000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13352200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12890400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12995000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15206000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-333000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-71000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-98000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-775000</v>
       </c>
-      <c r="G81" s="3">
-        <v>106000</v>
-      </c>
       <c r="H81" s="3">
+        <v>107000</v>
+      </c>
+      <c r="I81" s="3">
         <v>226000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>64000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>121000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>142000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>166000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>446000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3164300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>149000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>167000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-143000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-327000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,8 +4410,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4266,8 +4464,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>356000</v>
+      </c>
+      <c r="E89" s="3">
         <v>508000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-76000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>459000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>302000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>418000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>131000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>234000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>580000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>653000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>401000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>456000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>570000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>605800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-49800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3591000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>819700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,8 +4824,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4640,26 +4860,29 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-66700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-875000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-139000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-811000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-374000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-954000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>117000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-44000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-333000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-36000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-149000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>236000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-145000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1581300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-892500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>190800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3683000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1924000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,8 +5070,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4847,52 +5080,55 @@
         <v>-19000</v>
       </c>
       <c r="E96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-20000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-21000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-20000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-1000</v>
       </c>
       <c r="J96" s="3">
         <v>-1000</v>
       </c>
       <c r="K96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-2000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1700</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-1900</v>
       </c>
       <c r="Q96" s="3">
         <v>-1900</v>
       </c>
       <c r="R96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="S96" s="3">
         <v>-8000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,61 +5292,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>545000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-158000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>727000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>11000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>546000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-86000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-592000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-152000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-289000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-926000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-397000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-562400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>414200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>556600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-753400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>495400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5156,57 +5404,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E102" s="3">
         <v>211000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-160000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>96000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-106000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>449000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-505000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-251000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>255000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-422000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>240000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-251200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>269100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-612400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>398000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1033000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>VOYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2231000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2081000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1713000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1705000</v>
       </c>
-      <c r="G8" s="3">
-        <v>721000</v>
-      </c>
       <c r="H8" s="3">
+        <v>1844000</v>
+      </c>
+      <c r="I8" s="3">
         <v>1878000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1972000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1848000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>837000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2259000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2114000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1981000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1281400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2185000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2192000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2059000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8822000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2541200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E9" s="3">
         <v>241000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>19000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>76000</v>
       </c>
-      <c r="G9" s="3">
-        <v>-87000</v>
-      </c>
       <c r="H9" s="3">
+        <v>46000</v>
+      </c>
+      <c r="I9" s="3">
         <v>36000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>43000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>57000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>-27000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>86000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>74000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>100000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>-34400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>209000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>195000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>64000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>415000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>180700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2215000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1840000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1694000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1629000</v>
       </c>
-      <c r="G10" s="3">
-        <v>808000</v>
-      </c>
       <c r="H10" s="3">
+        <v>1798000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1842000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1929000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1791000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>864000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2173000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2040000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1881000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1315800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1976000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1997000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1995000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8407000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2360500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,8 +936,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -980,8 +993,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,49 +1052,52 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>10000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>50000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>20000</v>
       </c>
-      <c r="G14" s="3">
-        <v>25000</v>
-      </c>
       <c r="H14" s="3">
-        <v>3000</v>
+        <v>31000</v>
       </c>
       <c r="I14" s="3">
         <v>3000</v>
       </c>
       <c r="J14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K14" s="3">
         <v>26000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>14000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>15800</v>
-      </c>
-      <c r="P14" s="3">
-        <v>1000</v>
       </c>
       <c r="Q14" s="3">
         <v>1000</v>
@@ -1087,13 +1106,16 @@
         <v>1000</v>
       </c>
       <c r="S14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T14" s="3">
         <v>34000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1148,8 +1170,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1682000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2181000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1711000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1618000</v>
       </c>
-      <c r="G17" s="3">
-        <v>729000</v>
-      </c>
       <c r="H17" s="3">
+        <v>1716000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1670000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1671000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1699000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>667000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2018000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1811000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1905000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2078000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1965000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1883000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8422000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2825000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>549000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>87000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-8000</v>
-      </c>
       <c r="H18" s="3">
+        <v>128000</v>
+      </c>
+      <c r="I18" s="3">
         <v>208000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>301000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>149000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>170000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>241000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>303000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>76000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>280500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>107000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>227000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>176000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>400000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-283800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1301,8 +1333,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1357,8 +1390,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1413,176 +1449,188 @@
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E22" s="3">
         <v>45000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>50000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>43000</v>
       </c>
-      <c r="G22" s="3">
-        <v>50000</v>
-      </c>
       <c r="H22" s="3">
+        <v>48000</v>
+      </c>
+      <c r="I22" s="3">
         <v>59000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>58000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>47000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>90000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>55000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>62000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>55000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>62300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>67000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>72000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>63000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>390000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>72100</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-145000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-48000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>44000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-58000</v>
-      </c>
       <c r="H23" s="3">
+        <v>80000</v>
+      </c>
+      <c r="I23" s="3">
         <v>149000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>243000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>102000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>80000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>186000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>241000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>21000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>218200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>40000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>155000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>113000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-355900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-72000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-6000</v>
       </c>
-      <c r="G24" s="3">
-        <v>-278000</v>
-      </c>
       <c r="H24" s="3">
+        <v>-264000</v>
+      </c>
+      <c r="I24" s="3">
         <v>5000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>33000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-41000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>45000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>42000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>93000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-29000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-119400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>446000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-73000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-53000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>50000</v>
       </c>
-      <c r="G26" s="3">
-        <v>220000</v>
-      </c>
       <c r="H26" s="3">
+        <v>344000</v>
+      </c>
+      <c r="I26" s="3">
         <v>144000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>210000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>93000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>121000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>165000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>196000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>176200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>80000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>155000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>20000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>39000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-236500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>318000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-193000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>22000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>30000</v>
       </c>
-      <c r="G27" s="3">
-        <v>209000</v>
-      </c>
       <c r="H27" s="3">
+        <v>334000</v>
+      </c>
+      <c r="I27" s="3">
         <v>111000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>184000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>84000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>57000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>142000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>138000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>94700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>103000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1805,64 +1862,70 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-140000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-93000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-128000</v>
       </c>
-      <c r="G29" s="3">
-        <v>-984000</v>
-      </c>
       <c r="H29" s="3">
+        <v>-1119000</v>
+      </c>
+      <c r="I29" s="3">
         <v>-4000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>42000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-20000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>64000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>28000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>429000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-3259000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>134000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>64000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-162000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-337000</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,8 +2039,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2029,64 +2098,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-333000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-71000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-98000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-775000</v>
-      </c>
       <c r="H33" s="3">
+        <v>-785000</v>
+      </c>
+      <c r="I33" s="3">
         <v>107000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>226000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>64000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>121000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>142000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>166000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>446000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3164300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>149000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>167000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-143000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-327000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-333000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-71000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-98000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-775000</v>
-      </c>
       <c r="H35" s="3">
+        <v>-785000</v>
+      </c>
+      <c r="I35" s="3">
         <v>107000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>226000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>64000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>121000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>142000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>166000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>446000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3164300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>149000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>167000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-143000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-327000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,64 +2387,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1723000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1136000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1149000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1085000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1249000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1450000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1541000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1340000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1568000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1885000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1620000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1597000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1435000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2072900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2713300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2531300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2229000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2951600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2414,8 +2503,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2470,8 +2562,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2526,8 +2621,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2582,8 +2680,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2638,64 +2739,70 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>54841000</v>
+      </c>
+      <c r="E47" s="3">
         <v>54357000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>54264000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>51772000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>52700000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>67153000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>65417000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>64204000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>49918000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>62277000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>62241000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>63014000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>64644000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>93681000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>90575600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>89116700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>61153000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>93051100</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2726,17 +2833,17 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="3">
         <v>107000</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
@@ -2744,14 +2851,17 @@
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T48" s="3">
         <v>112300</v>
       </c>
-      <c r="T48" s="3" t="s">
+      <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2782,32 +2892,35 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
+      <c r="M49" s="3">
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3">
         <v>186000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>196000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>197800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>208000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>219500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>227300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,64 +3034,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21889000</v>
+      </c>
+      <c r="E52" s="3">
         <v>21494000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21249000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20902000</v>
       </c>
-      <c r="G52" s="3">
-        <v>21527000</v>
-      </c>
       <c r="H52" s="3">
+        <v>22953000</v>
+      </c>
+      <c r="I52" s="3">
         <v>401000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>576000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>864000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>21655000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1122000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1266000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>58102000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>59833000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1663700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1756900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2055700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>66368800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1128100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>180518000</v>
+      </c>
+      <c r="E54" s="3">
         <v>171466000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>166934000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>155732000</v>
       </c>
-      <c r="G54" s="3">
-        <v>169051000</v>
-      </c>
       <c r="H54" s="3">
+        <v>168990000</v>
+      </c>
+      <c r="I54" s="3">
         <v>166850000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>165162000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>161985000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>155430000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>165036000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>162740000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>219824000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>222532000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>226643900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>219838800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>217025500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>214585000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>218622200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,8 +3259,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3186,8 +3316,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,10 +3340,10 @@
         <v>1000</v>
       </c>
       <c r="I58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J58" s="3">
         <v>97000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1000</v>
       </c>
       <c r="K58" s="3">
         <v>1000</v>
@@ -3222,84 +3355,90 @@
         <v>1000</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>337000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>336600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>735900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>735500</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>90905000</v>
+      </c>
+      <c r="E59" s="3">
         <v>83454000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>80129000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>71002000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>83043000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>82049000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>81887000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>79627000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>71297000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>83034000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>80599000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>79668000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>79471000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>111603200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>105725300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>103261300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>67883100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>101627000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3354,120 +3493,129 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3043000</v>
+        <v>3044000</v>
       </c>
       <c r="E61" s="3">
         <v>3043000</v>
       </c>
       <c r="F61" s="3">
-        <v>3042000</v>
+        <v>3043000</v>
       </c>
       <c r="G61" s="3">
         <v>3042000</v>
       </c>
       <c r="H61" s="3">
-        <v>3041000</v>
+        <v>3042000</v>
       </c>
       <c r="I61" s="3">
         <v>3041000</v>
       </c>
       <c r="J61" s="3">
-        <v>3136000</v>
+        <v>3041000</v>
       </c>
       <c r="K61" s="3">
         <v>3136000</v>
       </c>
       <c r="L61" s="3">
+        <v>3136000</v>
+      </c>
+      <c r="M61" s="3">
         <v>3459000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>3458000</v>
       </c>
       <c r="N61" s="3">
         <v>3458000</v>
       </c>
       <c r="O61" s="3">
+        <v>3458000</v>
+      </c>
+      <c r="P61" s="3">
         <v>3123000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3122200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2726200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2725700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3550000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3548500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18976000</v>
+      </c>
+      <c r="E62" s="3">
         <v>18607000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18465000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18414000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18966000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>409000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>445000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>465000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18454000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>516000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>527000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>56998000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>58827000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>542200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>636800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>656000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>60250000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>631400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>170408000</v>
+      </c>
+      <c r="E66" s="3">
         <v>161809000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>157386000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>148305000</v>
       </c>
-      <c r="G66" s="3">
-        <v>159643000</v>
-      </c>
       <c r="H66" s="3">
+        <v>159651000</v>
+      </c>
+      <c r="I66" s="3">
         <v>156299000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>155098000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>152920000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>147217000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>156513000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>154280000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>210446000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>212523000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>212990900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>206486600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>204135100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>201590000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>203416200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,8 +3988,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,64 +4106,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4957000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5152000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4833000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4766000</v>
       </c>
-      <c r="G72" s="3">
-        <v>-4649000</v>
-      </c>
       <c r="H72" s="3">
+        <v>-4718000</v>
+      </c>
+      <c r="I72" s="3">
         <v>-11665000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11785000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12011000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11732000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11853000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11995000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12161000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12719000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9655600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9804200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9971400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9742000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9310300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10110000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9657000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9548000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7427000</v>
       </c>
-      <c r="G76" s="3">
-        <v>9408000</v>
-      </c>
       <c r="H76" s="3">
+        <v>9339000</v>
+      </c>
+      <c r="I76" s="3">
         <v>10551000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10064000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9065000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8213000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8523000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8460000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9378000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10009000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13653000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13352200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12890400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12995000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15206000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-333000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-71000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-98000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-775000</v>
-      </c>
       <c r="H81" s="3">
+        <v>-785000</v>
+      </c>
+      <c r="I81" s="3">
         <v>107000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>226000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>64000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>121000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>142000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>166000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>446000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3164300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>149000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>167000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-143000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-327000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,8 +4608,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4467,8 +4665,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>421000</v>
+      </c>
+      <c r="E89" s="3">
         <v>356000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>508000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-76000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>459000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>302000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>418000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>131000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>234000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>580000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>653000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>401000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>456000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>570000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>605800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-49800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3591000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>819700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,8 +5044,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4863,26 +5083,29 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-66700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-636000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-875000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-139000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-811000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-374000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-954000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>117000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-44000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-333000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-36000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-149000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>236000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-145000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1581300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-892500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>190800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3683000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1924000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,64 +5303,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-19000</v>
+        <v>-18000</v>
       </c>
       <c r="E96" s="3">
         <v>-19000</v>
       </c>
       <c r="F96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-20000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-21000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-20000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-1000</v>
       </c>
       <c r="K96" s="3">
         <v>-1000</v>
       </c>
       <c r="L96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-2000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-2500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-1900</v>
       </c>
       <c r="R96" s="3">
         <v>-1900</v>
       </c>
       <c r="S96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="T96" s="3">
         <v>-8000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,64 +5537,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>588000</v>
+      </c>
+      <c r="E100" s="3">
         <v>545000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-158000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>727000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>11000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>546000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-86000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-592000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-152000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-289000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-926000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-397000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-562400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>414200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>556600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-753400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>495400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5407,60 +5655,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>373000</v>
+      </c>
+      <c r="E102" s="3">
         <v>26000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>211000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-160000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>96000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-106000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>449000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-505000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-251000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>255000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-422000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>240000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-251200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-600500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>269100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-612400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>398000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1033000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>VOYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
         <v>2231000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2081000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1713000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1705000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1844000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1878000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1972000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1848000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>837000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2259000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2114000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1981000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1281400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2185000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2192000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2059000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8822000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2541200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>539000</v>
+      </c>
+      <c r="E9" s="3">
         <v>16000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>241000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>19000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>76000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>46000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>36000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>43000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>57000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>-27000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>86000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>74000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>100000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>-34400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>209000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>195000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>64000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>415000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>180700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
         <v>2215000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1840000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1694000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1629000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1798000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1842000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1929000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1791000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>864000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2173000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2040000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1881000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1315800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1976000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1997000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1995000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8407000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2360500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1009,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,52 +1071,55 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>50000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>20000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>31000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>3000</v>
       </c>
       <c r="J14" s="3">
         <v>3000</v>
       </c>
       <c r="K14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L14" s="3">
         <v>26000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>14000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>15800</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1000</v>
       </c>
       <c r="R14" s="3">
         <v>1000</v>
@@ -1109,13 +1128,16 @@
         <v>1000</v>
       </c>
       <c r="T14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U14" s="3">
         <v>34000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1173,8 +1195,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-3049000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1682000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2181000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1711000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1618000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1716000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1670000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1671000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1699000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>667000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2018000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1811000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1905000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2078000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1965000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1883000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8422000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2825000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>549000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>87000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>128000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>208000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>301000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>149000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>170000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>241000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>303000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>76000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>280500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>107000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>227000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>176000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>400000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-283800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,13 +1366,14 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1393,8 +1426,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1452,185 +1488,197 @@
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E22" s="3">
         <v>48000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>45000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>50000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>43000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>48000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>59000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>58000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>47000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>90000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>55000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>62000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>55000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>62300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>67000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>72000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>63000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>390000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>72100</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1038000</v>
+      </c>
+      <c r="E23" s="3">
         <v>501000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-145000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-48000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>44000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>80000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>149000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>243000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>102000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>80000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>186000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>241000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>21000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>218200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>40000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>155000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>113000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>10000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-355900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E24" s="3">
         <v>55000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-72000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-6000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-264000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>33000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-41000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>45000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>42000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-40000</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>93000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-29000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-119400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1086000</v>
+      </c>
+      <c r="E26" s="3">
         <v>446000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-73000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-53000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>50000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>344000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>144000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>210000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>93000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>121000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>165000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>196000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>176200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>80000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>155000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>20000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>39000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-236500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1072000</v>
+      </c>
+      <c r="E27" s="3">
         <v>318000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-193000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>22000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>30000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>334000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>111000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>184000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>84000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>57000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>142000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>138000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>94700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>15000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>103000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>19000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>10000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,67 +1922,73 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-58000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-140000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-93000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-128000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-1119000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-4000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>42000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-20000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>64000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>28000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>429000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-3259000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>134000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>64000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-162000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-337000</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,13 +2108,16 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2101,67 +2170,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1086000</v>
+      </c>
+      <c r="E33" s="3">
         <v>260000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-333000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-71000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-98000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-785000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>107000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>226000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>64000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>121000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>142000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>166000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>446000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3164300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>149000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>167000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-143000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-327000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1086000</v>
+      </c>
+      <c r="E35" s="3">
         <v>260000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-333000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-71000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-98000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-785000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>107000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>226000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>64000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>121000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>142000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>166000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>446000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3164300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>149000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>167000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-143000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-327000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,67 +2473,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1316000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1723000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1136000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1149000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1085000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1249000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1450000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1541000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1340000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1568000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1885000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1620000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1597000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1435000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2072900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2713300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2531300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2229000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2951600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2506,8 +2595,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2565,8 +2657,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2624,8 +2719,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2683,8 +2781,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2742,67 +2843,73 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>44236000</v>
+      </c>
+      <c r="E47" s="3">
         <v>54841000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>54357000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>54264000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>51772000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>52700000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>67153000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>65417000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>64204000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>49918000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>62277000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>62241000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>63014000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>64644000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>93681000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>90575600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>89116700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>61153000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>93051100</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2836,17 +2943,17 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
         <v>107000</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
@@ -2854,14 +2961,17 @@
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="3">
         <v>112300</v>
       </c>
-      <c r="U48" s="3" t="s">
+      <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2895,32 +3005,35 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3">
         <v>186000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>196000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>197800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>208000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>219500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>227300</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,67 +3153,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>935000</v>
+      </c>
+      <c r="E52" s="3">
         <v>21889000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21494000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21249000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20902000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>22953000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>401000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>576000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>864000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>21655000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1122000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1266000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>58102000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>59833000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1663700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1756900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2055700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>66368800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1128100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>162861000</v>
+      </c>
+      <c r="E54" s="3">
         <v>180518000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>171466000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>166934000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>155732000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>168990000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>166850000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>165162000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>161985000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>155430000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>165036000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>162740000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>219824000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>222532000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>226643900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>219838800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>217025500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>214585000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>218622200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,8 +3389,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3319,8 +3449,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3343,10 +3476,10 @@
         <v>1000</v>
       </c>
       <c r="J58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K58" s="3">
         <v>97000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1000</v>
       </c>
       <c r="L58" s="3">
         <v>1000</v>
@@ -3358,87 +3491,93 @@
         <v>1000</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>337000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>336600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>735900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>735500</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>93872000</v>
+      </c>
+      <c r="E59" s="3">
         <v>90905000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>83454000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>80129000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>71002000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>83043000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>82049000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>81887000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>79627000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>71297000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>83034000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>80599000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>79668000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>79471000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>111603200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>105725300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>103261300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>67883100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>101627000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3496,126 +3635,135 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2969000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3044000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>3043000</v>
       </c>
       <c r="F61" s="3">
         <v>3043000</v>
       </c>
       <c r="G61" s="3">
-        <v>3042000</v>
+        <v>3043000</v>
       </c>
       <c r="H61" s="3">
         <v>3042000</v>
       </c>
       <c r="I61" s="3">
-        <v>3041000</v>
+        <v>3042000</v>
       </c>
       <c r="J61" s="3">
         <v>3041000</v>
       </c>
       <c r="K61" s="3">
-        <v>3136000</v>
+        <v>3041000</v>
       </c>
       <c r="L61" s="3">
         <v>3136000</v>
       </c>
       <c r="M61" s="3">
+        <v>3136000</v>
+      </c>
+      <c r="N61" s="3">
         <v>3459000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>3458000</v>
       </c>
       <c r="O61" s="3">
         <v>3458000</v>
       </c>
       <c r="P61" s="3">
+        <v>3458000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>3123000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3122200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2726200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2725700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3550000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3548500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>333000</v>
+      </c>
+      <c r="E62" s="3">
         <v>18976000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18607000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18465000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18414000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18966000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>409000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>445000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>465000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18454000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>516000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>527000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>56998000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>58827000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>542200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>636800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>656000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>60250000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>631400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>154930000</v>
+      </c>
+      <c r="E66" s="3">
         <v>170408000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>161809000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>157386000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>148305000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>159651000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>156299000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>155098000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>152920000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>147217000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>156513000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>154280000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>210446000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>212523000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>212990900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>206486600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>204135100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>201590000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>203416200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,8 +4155,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3857000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4957000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5152000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4833000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4766000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4718000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11665000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11785000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12011000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11732000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11853000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11995000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12161000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12719000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9655600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9804200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9971400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9742000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-9310300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7931000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10110000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9657000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9548000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7427000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9339000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10551000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10064000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9065000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8213000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8523000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8460000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9378000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10009000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13653000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13352200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12890400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12995000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>15206000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1086000</v>
+      </c>
+      <c r="E81" s="3">
         <v>260000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-333000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-71000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-98000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-785000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>107000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>226000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>64000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>121000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>142000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>166000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>446000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3164300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>149000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>167000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-143000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-327000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,8 +4806,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4668,8 +4866,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-936000</v>
+      </c>
+      <c r="E89" s="3">
         <v>421000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>356000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>508000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-76000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>459000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>302000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>418000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>131000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>234000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>580000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>653000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>401000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>456000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>570000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>605800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-49800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3591000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>819700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,8 +5264,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5086,26 +5306,29 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-66700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>670000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-636000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-875000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-139000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-811000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-374000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-954000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>117000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-44000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-333000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-36000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-149000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>236000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-145000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1581300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-892500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>190800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3683000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1924000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,67 +5536,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-18000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-19000</v>
       </c>
       <c r="F96" s="3">
         <v>-19000</v>
       </c>
       <c r="G96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-20000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-21000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-20000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-1000</v>
       </c>
       <c r="L96" s="3">
         <v>-1000</v>
       </c>
       <c r="M96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-2000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-2000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1700</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-1900</v>
       </c>
       <c r="S96" s="3">
         <v>-1900</v>
       </c>
       <c r="T96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="U96" s="3">
         <v>-8000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,67 +5782,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-268000</v>
+      </c>
+      <c r="E100" s="3">
         <v>588000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>545000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-158000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>727000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>11000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>546000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-86000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-592000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-152000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-289000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-926000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-397000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-562400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>414200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>556600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-753400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>495400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5658,63 +5906,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-534000</v>
+      </c>
+      <c r="E102" s="3">
         <v>373000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>26000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>211000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-160000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>96000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-106000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>449000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-505000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-251000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>255000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-422000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>240000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-251200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-600500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>269100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-612400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>398000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1033000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>VOYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,281 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="3">
+        <v>2503000</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2231000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2081000</v>
       </c>
-      <c r="G8" s="3">
-        <v>1713000</v>
-      </c>
       <c r="H8" s="3">
+        <v>1719000</v>
+      </c>
+      <c r="I8" s="3">
         <v>1705000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1844000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1878000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1972000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1848000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>837000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2259000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2114000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1981000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1281400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2185000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2192000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2059000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8822000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2541200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E9" s="3">
         <v>539000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>241000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>19000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>76000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>46000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>36000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>43000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>57000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>-27000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>86000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>74000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>100000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>-34400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>209000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>195000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>64000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>415000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>180700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="3">
+        <v>2477000</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2215000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1840000</v>
       </c>
-      <c r="G10" s="3">
-        <v>1694000</v>
-      </c>
       <c r="H10" s="3">
+        <v>1700000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1629000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1798000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1842000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1929000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1791000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>864000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2173000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2040000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1881000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1315800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1976000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1997000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1995000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8407000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2360500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1012,8 +1025,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,8 +1090,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,46 +1102,46 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>50000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>20000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>31000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3000</v>
       </c>
       <c r="K14" s="3">
         <v>3000</v>
       </c>
       <c r="L14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M14" s="3">
         <v>26000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>14000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>15800</v>
-      </c>
-      <c r="R14" s="3">
-        <v>1000</v>
       </c>
       <c r="S14" s="3">
         <v>1000</v>
@@ -1131,13 +1150,16 @@
         <v>1000</v>
       </c>
       <c r="U14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V14" s="3">
         <v>34000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1198,8 +1220,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1244,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1424000</v>
+      </c>
+      <c r="E17" s="3">
         <v>-3049000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1682000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2181000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1711000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1618000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1716000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1670000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1671000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1699000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>667000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2018000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1811000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1905000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2078000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1965000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1883000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8422000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2825000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="3">
+        <v>1079000</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>549000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100000</v>
       </c>
-      <c r="G18" s="3">
-        <v>2000</v>
-      </c>
       <c r="H18" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I18" s="3">
         <v>87000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>128000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>208000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>301000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>149000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>170000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>241000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>303000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>76000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>280500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>107000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>227000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>176000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>400000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-283800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,17 +1399,18 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1429,8 +1462,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1491,194 +1527,206 @@
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E22" s="3">
         <v>54000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>48000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>45000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>50000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>43000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>48000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>59000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>58000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>47000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>90000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>55000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>62000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>55000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>62300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>67000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>72000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>63000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>390000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>72100</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1028000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1038000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>501000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-145000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-48000</v>
-      </c>
       <c r="H23" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="I23" s="3">
         <v>44000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>80000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>149000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>243000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>102000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>80000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>186000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>241000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>21000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>218200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>40000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>155000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>113000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>10000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-355900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-48000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>55000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-72000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-264000</v>
+      </c>
+      <c r="K24" s="3">
         <v>5000</v>
       </c>
-      <c r="H24" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-264000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>33000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-41000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>45000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>42000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-40000</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>93000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-29000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-119400</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1787,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>916000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1086000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>446000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-73000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-53000</v>
-      </c>
       <c r="H26" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="I26" s="3">
         <v>50000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>344000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>144000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>210000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>93000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>121000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>165000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>196000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>176200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>80000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>155000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>20000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>39000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-236500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>465000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1072000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>318000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-193000</v>
       </c>
-      <c r="G27" s="3">
-        <v>22000</v>
-      </c>
       <c r="H27" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I27" s="3">
         <v>30000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>334000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>111000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>184000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>84000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>57000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>142000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>138000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>94700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>15000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>103000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>19000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>10000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,70 +1982,76 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E29" s="3">
         <v>14000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-58000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-140000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-93000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-128000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-1119000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-4000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>42000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-20000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>64000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>28000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>429000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-3259000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>134000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>64000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-162000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-337000</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2112,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,17 +2177,20 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2173,70 +2242,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>459000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1086000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>260000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-333000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-71000</v>
-      </c>
       <c r="H33" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-98000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-785000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>107000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>226000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>64000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>121000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>142000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>166000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>446000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3164300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>149000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>167000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-143000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-327000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2372,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>459000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1086000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>260000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-333000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-71000</v>
-      </c>
       <c r="H35" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-98000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-785000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>107000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>226000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>64000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>121000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>142000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>166000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>446000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3164300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>149000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>167000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-143000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-327000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2534,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,70 +2559,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1850000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1316000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1723000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1136000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1149000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1085000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1249000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1450000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1541000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1340000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1568000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1885000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1620000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1597000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1435000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2072900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2713300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2531300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2229000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2951600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2598,8 +2687,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2660,8 +2752,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2722,8 +2817,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2784,8 +2882,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2846,70 +2947,76 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>44928000</v>
+      </c>
+      <c r="E47" s="3">
         <v>44236000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>54841000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>54357000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>54264000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>51772000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>52700000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>67153000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>65417000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>64204000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>49918000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>62277000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>62241000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>63014000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>64644000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>93681000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>90575600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>89116700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>61153000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>93051100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2946,17 +3053,17 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="3">
         <v>107000</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
@@ -2964,14 +3071,17 @@
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V48" s="3">
         <v>112300</v>
       </c>
-      <c r="V48" s="3" t="s">
+      <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3008,32 +3118,35 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3">
         <v>186000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>196000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>197800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>208000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>219500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>227300</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3207,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,70 +3272,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>690000</v>
+      </c>
+      <c r="E52" s="3">
         <v>935000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21889000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21494000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21249000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20902000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>22953000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>401000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>576000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>864000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>21655000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1122000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1266000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>58102000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>59833000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1663700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1756900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2055700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>66368800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1128100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3402,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>168194000</v>
+      </c>
+      <c r="E54" s="3">
         <v>162861000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>180518000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>171466000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>166934000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>155732000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>168990000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>166850000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>165162000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>161985000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>155430000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>165036000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>162740000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>219824000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>222532000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>226643900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>219838800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>217025500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>214585000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>218622200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3494,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,8 +3519,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3452,8 +3582,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3479,10 +3612,10 @@
         <v>1000</v>
       </c>
       <c r="K58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L58" s="3">
         <v>97000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1000</v>
       </c>
       <c r="M58" s="3">
         <v>1000</v>
@@ -3494,90 +3627,96 @@
         <v>1000</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>337000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>336600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>735900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>735500</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>98102000</v>
+      </c>
+      <c r="E59" s="3">
         <v>93872000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>90905000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>83454000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>80129000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>71002000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>83043000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>82049000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>81887000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>79627000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>71297000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>83034000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>80599000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>79668000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>79471000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>111603200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>105725300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>103261300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>67883100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>101627000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3638,8 +3777,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3647,123 +3789,129 @@
         <v>2969000</v>
       </c>
       <c r="E61" s="3">
+        <v>2969000</v>
+      </c>
+      <c r="F61" s="3">
         <v>3044000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>3043000</v>
       </c>
       <c r="G61" s="3">
         <v>3043000</v>
       </c>
       <c r="H61" s="3">
-        <v>3042000</v>
+        <v>3043000</v>
       </c>
       <c r="I61" s="3">
         <v>3042000</v>
       </c>
       <c r="J61" s="3">
-        <v>3041000</v>
+        <v>3042000</v>
       </c>
       <c r="K61" s="3">
         <v>3041000</v>
       </c>
       <c r="L61" s="3">
-        <v>3136000</v>
+        <v>3041000</v>
       </c>
       <c r="M61" s="3">
         <v>3136000</v>
       </c>
       <c r="N61" s="3">
+        <v>3136000</v>
+      </c>
+      <c r="O61" s="3">
         <v>3459000</v>
-      </c>
-      <c r="O61" s="3">
-        <v>3458000</v>
       </c>
       <c r="P61" s="3">
         <v>3458000</v>
       </c>
       <c r="Q61" s="3">
+        <v>3458000</v>
+      </c>
+      <c r="R61" s="3">
         <v>3123000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3122200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2726200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2725700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3550000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3548500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E62" s="3">
         <v>333000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18976000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18607000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18465000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18414000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18966000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>409000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>445000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>465000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18454000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>516000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>527000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>56998000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>58827000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>542200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>636800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>656000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>60250000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>631400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3972,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4037,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4102,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>159832000</v>
+      </c>
+      <c r="E66" s="3">
         <v>154930000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>170408000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>161809000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>157386000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>148305000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>159651000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>156299000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>155098000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>152920000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>147217000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>156513000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>154280000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>210446000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>212523000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>212990900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>206486600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>204135100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>201590000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>203416200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4194,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4322,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4220,8 +4387,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4452,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3394000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3857000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4957000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5152000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4833000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4766000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4718000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11665000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11785000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12011000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11732000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11853000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11995000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12161000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12719000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9655600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9804200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9971400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-9742000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-9310300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4582,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4647,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4712,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8362000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7931000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10110000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9657000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9548000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7427000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9339000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10551000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10064000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9065000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8213000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8523000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8460000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9378000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10009000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13653000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13352200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12890400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12995000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>15206000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4842,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>459000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1086000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>260000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-333000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-71000</v>
-      </c>
       <c r="H81" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-98000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-785000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>107000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>226000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>64000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>121000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>142000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>166000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>446000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3164300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>149000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>167000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-143000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-327000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,8 +5004,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4869,8 +5067,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5132,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5197,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5262,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5327,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5392,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>747000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-936000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>421000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>356000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>508000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-76000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>459000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>302000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>418000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>131000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>234000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>580000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>653000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>401000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>456000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>570000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>605800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-49800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3591000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>819700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,8 +5484,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5309,26 +5529,29 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-66700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5612,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5677,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E94" s="3">
         <v>670000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-636000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-875000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-139000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-811000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-374000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-954000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>117000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-44000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-333000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-36000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-149000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>236000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-145000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1581300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-892500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>190800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3683000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1924000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,8 +5769,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5546,61 +5779,64 @@
         <v>-20000</v>
       </c>
       <c r="E96" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-18000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-19000</v>
       </c>
       <c r="G96" s="3">
         <v>-19000</v>
       </c>
       <c r="H96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-20000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-21000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-20000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-1000</v>
       </c>
       <c r="M96" s="3">
         <v>-1000</v>
       </c>
       <c r="N96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-2000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-2500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1700</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-1900</v>
       </c>
       <c r="T96" s="3">
         <v>-1900</v>
       </c>
       <c r="U96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="V96" s="3">
         <v>-8000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5897,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5962,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,70 +6027,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-333000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-268000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>588000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>545000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-158000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>727000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>11000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>546000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-86000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-592000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-152000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-289000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-926000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-397000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-562400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>414200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>556600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-753400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>495400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5909,66 +6157,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>595000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-534000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>373000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>26000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>211000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-160000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>96000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-106000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>449000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-505000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-251000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>255000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-422000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>240000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-251200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-600500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>269100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-612400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>398000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1033000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>VOYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,293 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2009000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2503000</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2231000</v>
       </c>
-      <c r="G8" s="3">
-        <v>2081000</v>
-      </c>
       <c r="H8" s="3">
+        <v>5505000</v>
+      </c>
+      <c r="I8" s="3">
         <v>1719000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1705000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1844000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1878000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1972000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1848000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>837000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2259000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2114000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1981000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1281400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2185000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2192000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2059000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8822000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2541200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E9" s="3">
         <v>26000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>539000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16000</v>
       </c>
-      <c r="G9" s="3">
-        <v>241000</v>
-      </c>
       <c r="H9" s="3">
+        <v>336000</v>
+      </c>
+      <c r="I9" s="3">
         <v>19000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>76000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>46000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>36000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>43000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>57000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>-27000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>86000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>74000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>100000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>-34400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>209000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>195000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>64000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>415000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>180700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1819000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2477000</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2215000</v>
       </c>
-      <c r="G10" s="3">
-        <v>1840000</v>
-      </c>
       <c r="H10" s="3">
+        <v>5169000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1700000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1629000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1798000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1842000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1929000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1791000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>864000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2173000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2040000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1881000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1315800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1976000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1997000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1995000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8407000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2360500</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1028,8 +1041,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,8 +1109,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,46 +1124,46 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
-        <v>10000</v>
-      </c>
       <c r="H14" s="3">
+        <v>80000</v>
+      </c>
+      <c r="I14" s="3">
         <v>50000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>20000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>31000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>3000</v>
       </c>
       <c r="L14" s="3">
         <v>3000</v>
       </c>
       <c r="M14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N14" s="3">
         <v>26000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>14000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>15800</v>
-      </c>
-      <c r="S14" s="3">
-        <v>1000</v>
       </c>
       <c r="T14" s="3">
         <v>1000</v>
@@ -1153,13 +1172,16 @@
         <v>1000</v>
       </c>
       <c r="V14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W14" s="3">
         <v>34000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1223,8 +1245,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1245,138 +1270,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1548000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1424000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-3049000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1682000</v>
       </c>
-      <c r="G17" s="3">
-        <v>2181000</v>
-      </c>
       <c r="H17" s="3">
+        <v>5510000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1711000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1618000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1716000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1670000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1671000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1699000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>667000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2018000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1811000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1905000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2078000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1965000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1883000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8422000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2825000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>461000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1079000</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>549000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-100000</v>
-      </c>
       <c r="H18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I18" s="3">
         <v>8000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>87000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>128000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>208000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>301000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>149000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>170000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>241000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>303000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>76000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>280500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>107000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>227000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>176000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>400000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-283800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,20 +1432,21 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1465,25 +1498,28 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>461000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1079000</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
+      <c r="G21" s="3">
+        <v>549000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-5000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
@@ -1530,203 +1566,215 @@
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E22" s="3">
         <v>51000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>54000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>48000</v>
       </c>
-      <c r="G22" s="3">
-        <v>45000</v>
-      </c>
       <c r="H22" s="3">
+        <v>138000</v>
+      </c>
+      <c r="I22" s="3">
         <v>50000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>43000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>48000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>59000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>58000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>47000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>90000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>55000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>62000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>55000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>62300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>67000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>72000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>63000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>390000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>72100</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>411000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1028000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1038000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>501000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-145000</v>
-      </c>
       <c r="H23" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-42000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>44000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>80000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>149000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>243000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>102000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>80000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>186000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>241000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>21000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>218200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>40000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>155000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>113000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>10000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-355900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E24" s="3">
         <v>112000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-48000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>55000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-72000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-6000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-264000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>33000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-41000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>45000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>42000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-40000</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>93000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-29000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-119400</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1790,138 +1838,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>371000</v>
+      </c>
+      <c r="E26" s="3">
         <v>916000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1086000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>446000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-73000</v>
-      </c>
       <c r="H26" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-48000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>50000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>344000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>144000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>210000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>93000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>121000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>165000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>196000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>176200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>80000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>155000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>20000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>39000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-236500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E27" s="3">
         <v>465000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1072000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>318000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-193000</v>
-      </c>
       <c r="H27" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="I27" s="3">
         <v>27000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>30000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>334000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>111000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>184000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>84000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>57000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>142000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>138000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>94700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>15000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>103000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>19000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>10000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1985,73 +2042,79 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-6000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>14000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-58000</v>
       </c>
-      <c r="G29" s="3">
-        <v>-140000</v>
-      </c>
       <c r="H29" s="3">
+        <v>-363000</v>
+      </c>
+      <c r="I29" s="3">
         <v>-93000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-128000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1119000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-4000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>42000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-20000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>64000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>28000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>429000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-3259000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>134000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>64000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-162000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-337000</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2115,8 +2178,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2180,20 +2246,23 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2245,73 +2314,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E33" s="3">
         <v>459000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1086000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>260000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-333000</v>
-      </c>
       <c r="H33" s="3">
+        <v>-499000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-66000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-98000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-785000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>107000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>226000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>64000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>121000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>142000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>166000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>446000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3164300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>149000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>167000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-143000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-327000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,143 +2450,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E35" s="3">
         <v>459000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1086000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>260000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-333000</v>
-      </c>
       <c r="H35" s="3">
+        <v>-499000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-66000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-98000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-785000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>107000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>226000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>64000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>121000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>142000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>166000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>446000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3164300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>149000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>167000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-143000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-327000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2535,8 +2619,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,73 +2645,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1818000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1850000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1316000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1723000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1136000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1149000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1085000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1249000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1450000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1541000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1340000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1568000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1885000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1620000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1597000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1435000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2072900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2713300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2531300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2229000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2951600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2690,8 +2779,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2755,8 +2847,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2820,8 +2915,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2885,8 +2983,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2950,73 +3051,79 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>45418000</v>
+      </c>
+      <c r="E47" s="3">
         <v>44928000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>44236000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>54841000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>54357000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>54264000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>51772000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>52700000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>67153000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>65417000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>64204000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>49918000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>62277000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>62241000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>63014000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>64644000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>93681000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>90575600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>89116700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>61153000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>93051100</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3056,17 +3163,17 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
         <v>107000</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
@@ -3074,14 +3181,17 @@
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W48" s="3">
         <v>112300</v>
       </c>
-      <c r="W48" s="3" t="s">
+      <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3121,32 +3231,35 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
+      <c r="P49" s="3">
+        <v>0</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
         <v>186000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>196000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>197800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>208000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>219500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>227300</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,8 +3323,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3275,73 +3391,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>691000</v>
+      </c>
+      <c r="E52" s="3">
         <v>690000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>935000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21889000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21494000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>21249000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20902000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>22953000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>401000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>576000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>864000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>21655000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1122000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1266000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>58102000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>59833000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1663700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1756900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2055700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>66368800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1128100</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3405,73 +3527,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>168417000</v>
+      </c>
+      <c r="E54" s="3">
         <v>168194000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>162861000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>180518000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>171466000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>166934000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>155732000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>168990000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>166850000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>165162000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>161985000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>155430000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>165036000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>162740000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>219824000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>222532000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>226643900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>219838800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>217025500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>214585000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>218622200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3495,8 +3623,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3520,8 +3649,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3585,8 +3715,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3615,10 +3748,10 @@
         <v>1000</v>
       </c>
       <c r="L58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M58" s="3">
         <v>97000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1000</v>
       </c>
       <c r="N58" s="3">
         <v>1000</v>
@@ -3630,93 +3763,99 @@
         <v>1000</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>337000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>336600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>735900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>735500</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>97995000</v>
+      </c>
+      <c r="E59" s="3">
         <v>98102000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>93872000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>90905000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>83454000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>80129000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>71002000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>83043000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>82049000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>81887000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>79627000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>71297000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>83034000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>80599000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>79668000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>79471000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>111603200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>105725300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>103261300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>67883100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>101627000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3780,138 +3919,147 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2969000</v>
+        <v>2970000</v>
       </c>
       <c r="E61" s="3">
         <v>2969000</v>
       </c>
       <c r="F61" s="3">
+        <v>2969000</v>
+      </c>
+      <c r="G61" s="3">
         <v>3044000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>3043000</v>
       </c>
       <c r="H61" s="3">
         <v>3043000</v>
       </c>
       <c r="I61" s="3">
-        <v>3042000</v>
+        <v>3043000</v>
       </c>
       <c r="J61" s="3">
         <v>3042000</v>
       </c>
       <c r="K61" s="3">
-        <v>3041000</v>
+        <v>3042000</v>
       </c>
       <c r="L61" s="3">
         <v>3041000</v>
       </c>
       <c r="M61" s="3">
-        <v>3136000</v>
+        <v>3041000</v>
       </c>
       <c r="N61" s="3">
         <v>3136000</v>
       </c>
       <c r="O61" s="3">
+        <v>3136000</v>
+      </c>
+      <c r="P61" s="3">
         <v>3459000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>3458000</v>
       </c>
       <c r="Q61" s="3">
         <v>3458000</v>
       </c>
       <c r="R61" s="3">
+        <v>3458000</v>
+      </c>
+      <c r="S61" s="3">
         <v>3123000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3122200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2726200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2725700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3550000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3548500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>274000</v>
+      </c>
+      <c r="E62" s="3">
         <v>304000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>333000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18976000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18607000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18465000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18414000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18966000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>409000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>445000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>465000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18454000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>516000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>527000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>56998000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>58827000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>542200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>636800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>656000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>60250000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>631400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3975,8 +4123,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4040,8 +4191,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4105,73 +4259,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>160028000</v>
+      </c>
+      <c r="E66" s="3">
         <v>159832000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>154930000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>170408000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>161809000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>157386000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>148305000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>159651000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>156299000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>155098000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>152920000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>147217000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>156513000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>154280000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>210446000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>212523000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>212990900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>206486600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>204135100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>201590000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>203416200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4195,8 +4355,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,8 +4421,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4325,8 +4489,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4390,8 +4557,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4455,73 +4625,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3238000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3394000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3857000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4957000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5152000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4833000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4766000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4718000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11665000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11785000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12011000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11732000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11853000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11995000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12161000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12719000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9655600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9804200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-9971400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-9742000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-9310300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,8 +4761,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4650,8 +4829,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4715,73 +4897,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8389000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8362000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7931000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10110000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9657000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9548000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7427000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9339000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10551000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10064000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9065000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8213000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8523000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8460000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9378000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10009000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13653000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13352200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12890400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12995000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>15206000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,143 +5033,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E81" s="3">
         <v>459000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1086000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>260000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-333000</v>
-      </c>
       <c r="H81" s="3">
+        <v>-499000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-66000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-98000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-785000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>107000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>226000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>64000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>121000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>142000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>166000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>446000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3164300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>149000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>167000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-143000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-327000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5005,8 +5202,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5070,8 +5268,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5336,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5200,8 +5404,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5265,8 +5472,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,8 +5540,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5395,73 +5608,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E89" s="3">
         <v>747000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-936000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>421000</v>
       </c>
-      <c r="G89" s="3">
-        <v>356000</v>
-      </c>
       <c r="H89" s="3">
+        <v>788000</v>
+      </c>
+      <c r="I89" s="3">
         <v>508000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-76000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>459000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>302000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>418000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>131000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>234000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>580000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>653000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>401000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>456000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>570000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>605800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-49800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3591000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>819700</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5485,8 +5704,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5532,26 +5752,29 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-66700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5615,8 +5838,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5680,73 +5906,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600000</v>
+      </c>
+      <c r="E94" s="3">
         <v>181000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>670000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-636000</v>
       </c>
-      <c r="G94" s="3">
-        <v>-875000</v>
-      </c>
       <c r="H94" s="3">
+        <v>-1825000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-139000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-811000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-374000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-954000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>117000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-44000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-333000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-36000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-149000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>236000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-145000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1581300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-892500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>190800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3683000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1924000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5770,73 +6002,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-20000</v>
+        <v>-19000</v>
       </c>
       <c r="E96" s="3">
         <v>-20000</v>
       </c>
       <c r="F96" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-18000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-19000</v>
       </c>
-      <c r="H96" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-20000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-21000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-20000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-1000</v>
       </c>
       <c r="N96" s="3">
         <v>-1000</v>
       </c>
       <c r="O96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-2000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-2000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-2500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1700</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-1900</v>
       </c>
       <c r="U96" s="3">
         <v>-1900</v>
       </c>
       <c r="V96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="W96" s="3">
         <v>-8000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5900,8 +6136,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5965,8 +6204,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6030,73 +6272,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-333000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-268000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>588000</v>
       </c>
-      <c r="G100" s="3">
-        <v>545000</v>
-      </c>
       <c r="H100" s="3">
+        <v>1114000</v>
+      </c>
+      <c r="I100" s="3">
         <v>-158000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>727000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>11000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>546000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-86000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-592000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-152000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-289000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-926000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-397000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-562400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>414200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>556600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-753400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>495400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6160,69 +6408,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="E102" s="3">
         <v>595000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-534000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>373000</v>
       </c>
-      <c r="G102" s="3">
-        <v>26000</v>
-      </c>
       <c r="H102" s="3">
+        <v>77000</v>
+      </c>
+      <c r="I102" s="3">
         <v>211000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-160000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>96000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-106000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>449000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-505000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-251000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>255000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-422000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>240000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-251200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-600500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>269100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-612400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>398000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1033000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>VOYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,293 +665,305 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1677000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2009000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2503000</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2231000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5505000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1719000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1705000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1844000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1878000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1972000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1848000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>837000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2259000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2114000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1981000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1281400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2185000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2192000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2059000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8822000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2541200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E9" s="3">
         <v>190000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>26000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>539000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>336000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>76000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>46000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>36000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>43000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>57000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>-27000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>86000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>74000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>100000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>-34400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>209000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>195000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>64000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>415000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>180700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1637000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1819000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2477000</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2215000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5169000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1700000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1629000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1798000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1842000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1929000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1791000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>864000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2173000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2040000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1881000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1315800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1976000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1997000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1995000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8407000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2360500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +988,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,8 +1057,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,61 +1128,64 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>80000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>50000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>20000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>31000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>3000</v>
       </c>
       <c r="M14" s="3">
         <v>3000</v>
       </c>
       <c r="N14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O14" s="3">
         <v>26000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>7000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>14000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>15800</v>
-      </c>
-      <c r="T14" s="3">
-        <v>1000</v>
       </c>
       <c r="U14" s="3">
         <v>1000</v>
@@ -1175,13 +1194,16 @@
         <v>1000</v>
       </c>
       <c r="W14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X14" s="3">
         <v>34000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1248,8 +1270,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1296,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1308000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1548000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1424000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-3049000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1682000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5510000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1711000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1618000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1716000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1670000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1671000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1699000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>667000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2018000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1811000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1905000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2078000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1965000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1883000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8422000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2825000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>369000</v>
+      </c>
+      <c r="E18" s="3">
         <v>461000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1079000</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>549000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>87000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>128000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>208000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>301000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>149000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>170000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>241000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>303000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>76000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>280500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>107000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>227000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>176000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>400000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-283800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,8 +1465,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1444,12 +1477,12 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1501,28 +1534,31 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>461000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1079000</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>549000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1569,212 +1605,224 @@
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E22" s="3">
         <v>50000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>51000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>54000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>48000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>138000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>50000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>43000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>48000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>59000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>58000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>47000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>90000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>55000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>62000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>55000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>62300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>67000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>72000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>63000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>390000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>72100</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E23" s="3">
         <v>411000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1028000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1038000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>501000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-143000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-42000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>44000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>80000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>149000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>243000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>102000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>80000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>186000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>241000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>21000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>218200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>40000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>155000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>113000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>10000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-355900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-202000</v>
+      </c>
+      <c r="E24" s="3">
         <v>40000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>112000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-48000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>55000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-72000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-264000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>33000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-41000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>45000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>42000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-40000</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>93000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-29000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-119400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,144 +1889,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E26" s="3">
         <v>371000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>916000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1086000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>446000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-71000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-48000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>50000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>344000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>144000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>210000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>93000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>121000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>165000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>196000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>176200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>80000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>155000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>20000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>39000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-236500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>398000</v>
+      </c>
+      <c r="E27" s="3">
         <v>143000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>465000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1072000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>318000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-136000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>27000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>30000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>334000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>111000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>184000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>84000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>57000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>142000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>138000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>94700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>15000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>103000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>19000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>10000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2045,76 +2102,82 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-6000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>14000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-58000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-363000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-93000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-128000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1119000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-4000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>42000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-20000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>64000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>28000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>429000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-3259000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>134000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>64000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-162000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-337000</v>
       </c>
-      <c r="X29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2244,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,8 +2315,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2260,12 +2329,12 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2317,76 +2386,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>403000</v>
+      </c>
+      <c r="E33" s="3">
         <v>142000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>459000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1086000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>260000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-499000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-66000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-98000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-785000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>107000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>226000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>64000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>121000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>142000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>166000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>446000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3164300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>149000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>167000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-143000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-327000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2528,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>403000</v>
+      </c>
+      <c r="E35" s="3">
         <v>142000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>459000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1086000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>260000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-499000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-66000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-98000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-785000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>107000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>226000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>64000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>121000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>142000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>166000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>446000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3164300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>149000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>167000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-143000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-327000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2704,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,76 +2731,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1573000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1818000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1850000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1316000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1723000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1136000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1149000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1085000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1249000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1450000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1541000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1340000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1568000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1885000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1620000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1597000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1435000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2072900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2713300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2531300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2229000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2951600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2782,31 +2871,34 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>13635000</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>13580000</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2850,8 +2942,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2918,8 +3013,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2986,8 +3084,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3054,76 +3155,82 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>45418000</v>
+        <v>44387000</v>
       </c>
       <c r="E47" s="3">
-        <v>44928000</v>
+        <v>47491000</v>
       </c>
       <c r="F47" s="3">
-        <v>44236000</v>
+        <v>45341000</v>
       </c>
       <c r="G47" s="3">
+        <v>44660000</v>
+      </c>
+      <c r="H47" s="3">
         <v>54841000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>54357000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>54264000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>51772000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>52700000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>67153000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>65417000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>64204000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>49918000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>62277000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>62241000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>63014000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>64644000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>93681000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>90575600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>89116700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>61153000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>93051100</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3166,17 +3273,17 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T48" s="3">
         <v>107000</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
@@ -3184,14 +3291,17 @@
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X48" s="3">
         <v>112300</v>
       </c>
-      <c r="X48" s="3" t="s">
+      <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3234,32 +3344,35 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T49" s="3">
         <v>186000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>196000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>197800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>208000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>219500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>227300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3439,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,76 +3510,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>986000</v>
+      </c>
+      <c r="E52" s="3">
         <v>691000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>690000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>935000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21889000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>21494000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>21249000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20902000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>22953000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>401000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>576000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>864000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>21655000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1122000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1266000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>58102000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>59833000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1663700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1756900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2055700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>66368800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1128100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3652,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>171262000</v>
+      </c>
+      <c r="E54" s="3">
         <v>168417000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>168194000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>162861000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>180518000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>171466000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>166934000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>155732000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>168990000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>166850000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>165162000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>161985000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>155430000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>165036000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>162740000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>219824000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>222532000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>226643900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>219838800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>217025500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>214585000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>218622200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3752,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,8 +3779,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3718,8 +3848,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3751,10 +3884,10 @@
         <v>1000</v>
       </c>
       <c r="M58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N58" s="3">
         <v>97000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1000</v>
       </c>
       <c r="O58" s="3">
         <v>1000</v>
@@ -3766,96 +3899,102 @@
         <v>1000</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>337000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>336600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>735900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>735500</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>101616000</v>
+      </c>
+      <c r="E59" s="3">
         <v>97995000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>98102000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>93872000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>90905000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>83454000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>80129000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>71002000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>83043000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>82049000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>81887000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>79627000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>71297000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>83034000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>80599000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>79668000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>79471000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>111603200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>105725300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>103261300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>67883100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>101627000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3922,144 +4061,153 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2595000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2970000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2969000</v>
       </c>
       <c r="F61" s="3">
         <v>2969000</v>
       </c>
       <c r="G61" s="3">
+        <v>2969000</v>
+      </c>
+      <c r="H61" s="3">
         <v>3044000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>3043000</v>
       </c>
       <c r="I61" s="3">
         <v>3043000</v>
       </c>
       <c r="J61" s="3">
-        <v>3042000</v>
+        <v>3043000</v>
       </c>
       <c r="K61" s="3">
         <v>3042000</v>
       </c>
       <c r="L61" s="3">
-        <v>3041000</v>
+        <v>3042000</v>
       </c>
       <c r="M61" s="3">
         <v>3041000</v>
       </c>
       <c r="N61" s="3">
-        <v>3136000</v>
+        <v>3041000</v>
       </c>
       <c r="O61" s="3">
         <v>3136000</v>
       </c>
       <c r="P61" s="3">
+        <v>3136000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>3459000</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>3458000</v>
       </c>
       <c r="R61" s="3">
         <v>3458000</v>
       </c>
       <c r="S61" s="3">
+        <v>3458000</v>
+      </c>
+      <c r="T61" s="3">
         <v>3123000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3122200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2726200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2725700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3550000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3548500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E62" s="3">
         <v>274000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>304000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>333000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18976000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18607000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18465000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18414000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18966000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>409000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>445000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>465000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18454000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>516000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>527000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>56998000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>58827000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>542200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>636800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>656000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>60250000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>631400</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4274,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,8 +4345,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4416,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>163009000</v>
+      </c>
+      <c r="E66" s="3">
         <v>160028000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>159832000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>154930000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>170408000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>161809000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>157386000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>148305000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>159651000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>156299000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>155098000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>152920000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>147217000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>156513000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>154280000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>210446000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>212523000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>212990900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>206486600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>204135100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>201590000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>203416200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4516,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4585,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,8 +4656,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4560,8 +4727,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4798,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1310000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3238000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3394000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3857000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4957000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5152000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4833000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4766000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4718000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11665000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11785000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12011000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11732000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11853000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11995000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12161000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12719000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9655600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-9804200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-9971400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-9742000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-9310300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4940,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5011,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5082,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8253000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8389000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8362000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7931000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10110000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9657000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9548000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7427000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9339000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10551000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10064000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9065000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8213000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8523000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8460000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9378000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10009000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13653000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13352200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12890400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12995000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>15206000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5224,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>403000</v>
+      </c>
+      <c r="E81" s="3">
         <v>142000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>459000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1086000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>260000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-499000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-66000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-98000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-785000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>107000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>226000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>64000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>121000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>142000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>166000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>446000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3164300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>149000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>167000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-143000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-327000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,8 +5400,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5271,8 +5469,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5540,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5611,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5682,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5753,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +5824,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E89" s="3">
         <v>121000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>747000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-936000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>421000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>788000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>508000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-76000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>459000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>302000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>418000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>131000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>234000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>580000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>653000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>401000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>456000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>570000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>605800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-49800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3591000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>819700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,8 +5924,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5755,26 +5975,29 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-15700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-10400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-66700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6064,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6135,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-578000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>181000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>670000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-636000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1825000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-139000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-811000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-374000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-954000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>117000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-44000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-333000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-149000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>236000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-145000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1581300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-892500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>190800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3683000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1924000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,76 +6235,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-19000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-20000</v>
       </c>
       <c r="F96" s="3">
         <v>-20000</v>
       </c>
       <c r="G96" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-18000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-58000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-19000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-20000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-21000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-20000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-1000</v>
       </c>
       <c r="O96" s="3">
         <v>-1000</v>
       </c>
       <c r="P96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-2000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-2500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1700</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-1900</v>
       </c>
       <c r="V96" s="3">
         <v>-1900</v>
       </c>
       <c r="W96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="X96" s="3">
         <v>-8000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6375,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6446,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,76 +6517,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E100" s="3">
         <v>391000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-333000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-268000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>588000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1114000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-158000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>727000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>11000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>546000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-86000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-592000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-152000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-289000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-926000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-397000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-562400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>414200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>556600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-753400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>495400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6411,72 +6659,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-493000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-88000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>595000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-534000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>373000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>77000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>211000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-160000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>96000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-106000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>449000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-505000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-251000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>255000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-422000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>240000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-251200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-600500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>269100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-612400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>398000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1033000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>VOYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,305 +665,317 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1521000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1677000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2009000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2503000</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2231000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5505000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1719000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1705000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1844000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1878000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1972000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1848000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>837000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2259000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2114000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1981000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1281400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2185000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2192000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2059000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8822000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2541200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E9" s="3">
         <v>40000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>190000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>26000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>539000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>336000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>19000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>76000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>46000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>36000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>43000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>57000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>86000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>74000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>100000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>-34400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>209000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>195000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>64000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>415000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>180700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1441000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1637000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1819000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2477000</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2215000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5169000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1700000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1629000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1798000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1842000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1929000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1791000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>864000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2173000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2040000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1881000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1315800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1976000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1997000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1995000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8407000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2360500</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,8 +1001,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1131,64 +1147,67 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="E14" s="3">
         <v>3000</v>
       </c>
       <c r="F14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G14" s="3">
         <v>13000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>80000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>50000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>20000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>31000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>3000</v>
       </c>
       <c r="N14" s="3">
         <v>3000</v>
       </c>
       <c r="O14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P14" s="3">
         <v>26000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>14000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>15800</v>
-      </c>
-      <c r="U14" s="3">
-        <v>1000</v>
       </c>
       <c r="V14" s="3">
         <v>1000</v>
@@ -1197,13 +1216,16 @@
         <v>1000</v>
       </c>
       <c r="X14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y14" s="3">
         <v>34000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1273,8 +1295,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1322,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1384000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1308000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1548000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1424000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-3049000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1682000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5510000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1711000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1618000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1716000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1670000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1671000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1699000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>667000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2018000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1811000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1905000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2078000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1965000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1883000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8422000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2825000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E18" s="3">
         <v>369000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>461000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1079000</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>549000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>87000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>128000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>208000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>301000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>149000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>170000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>241000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>303000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>76000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>280500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>107000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>227000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>176000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>400000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-283800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,8 +1498,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1480,12 +1513,12 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1537,31 +1570,34 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
         <v>461000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1079000</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>549000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1608,221 +1644,233 @@
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E22" s="3">
         <v>69000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>50000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>51000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>54000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>48000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>138000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>50000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>43000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>48000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>59000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>58000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>47000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>90000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>55000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>62000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>55000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>62300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>67000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>72000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>63000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>390000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>72100</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E23" s="3">
         <v>300000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>411000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1028000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1038000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>501000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-143000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-42000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>44000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>80000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>149000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>243000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>102000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>80000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>186000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>241000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>21000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>218200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>40000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>155000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>113000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>10000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-355900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-202000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>40000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>112000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-48000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>55000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-72000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-264000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>33000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>45000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>42000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-40000</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>93000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-29000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-119400</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,150 +1940,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E26" s="3">
         <v>502000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>371000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>916000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1086000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>446000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-71000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-48000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>50000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>344000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>144000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>210000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>93000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>121000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>165000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>196000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>17000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>176200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>80000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>155000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>20000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>39000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-236500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E27" s="3">
         <v>398000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>143000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>465000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1072000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>318000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-136000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>27000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>30000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>334000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>111000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>184000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>84000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>57000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>142000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>138000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>94700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>15000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>103000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>19000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>10000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2105,79 +2162,85 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>5000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-1000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-6000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>14000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-58000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-363000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-93000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-128000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-1119000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-4000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>42000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-20000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>64000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>28000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>429000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-3259000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>134000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>64000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-162000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-337000</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2310,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,8 +2384,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,12 +2401,12 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2389,79 +2458,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E33" s="3">
         <v>403000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>142000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>459000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1086000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>260000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-499000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-66000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-98000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-785000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>107000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>226000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>64000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>121000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>142000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>166000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>446000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3164300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>149000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>167000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-143000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-327000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2606,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E35" s="3">
         <v>403000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>142000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>459000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1086000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>260000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-499000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-66000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-98000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-785000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>107000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>226000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>64000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>121000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>142000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>166000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>446000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3164300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>149000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>167000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-143000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-327000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2789,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,79 +2817,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1125000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1573000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1818000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1850000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1316000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1723000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1136000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1149000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1085000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1249000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1450000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1541000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1340000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1568000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1885000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1620000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1597000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1435000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2072900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2713300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2531300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2229000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2951600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2874,19 +2963,22 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13261000</v>
+      </c>
+      <c r="E43" s="3">
         <v>13635000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13580000</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
@@ -2900,8 +2992,8 @@
       <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2945,8 +3037,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3016,8 +3111,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3087,8 +3185,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3158,79 +3259,85 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>41978000</v>
+      </c>
+      <c r="E47" s="3">
         <v>44387000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>47491000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>45341000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>44660000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>54841000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>54357000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>54264000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>51772000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>52700000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>67153000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>65417000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>64204000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>49918000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>62277000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>62241000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>63014000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>64644000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>93681000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>90575600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>89116700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>61153000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>93051100</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3276,17 +3383,17 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="3">
         <v>107000</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>8</v>
@@ -3294,14 +3401,17 @@
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y48" s="3">
         <v>112300</v>
       </c>
-      <c r="Y48" s="3" t="s">
+      <c r="Z48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3347,32 +3457,35 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
+      <c r="R49" s="3">
+        <v>0</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3">
         <v>186000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>196000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>197800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>208000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>219500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>227300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3555,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,79 +3629,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1405000</v>
+      </c>
+      <c r="E52" s="3">
         <v>986000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>691000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>690000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>935000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>21889000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>21494000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>21249000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20902000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>22953000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>401000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>576000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>864000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>21655000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1122000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1266000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>58102000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>59833000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1663700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1756900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2055700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>66368800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1128100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3777,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>161806000</v>
+      </c>
+      <c r="E54" s="3">
         <v>171262000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>168417000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>168194000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>162861000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>180518000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>171466000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>166934000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>155732000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>168990000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>166850000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>165162000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>161985000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>155430000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>165036000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>162740000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>219824000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>222532000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>226643900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>219838800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>217025500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>214585000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>218622200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +3881,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,8 +3909,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3851,8 +3981,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3887,10 +4020,10 @@
         <v>1000</v>
       </c>
       <c r="N58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O58" s="3">
         <v>97000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1000</v>
       </c>
       <c r="P58" s="3">
         <v>1000</v>
@@ -3902,99 +4035,105 @@
         <v>1000</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>337000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>336600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>735900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>735500</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>94232000</v>
+      </c>
+      <c r="E59" s="3">
         <v>101616000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>97995000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>98102000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>93872000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>90905000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>83454000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>80129000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>71002000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>83043000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>82049000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>81887000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>79627000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>71297000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>83034000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>80599000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>79668000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>79471000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>111603200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>105725300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>103261300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>67883100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>101627000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4064,150 +4203,159 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2406000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2595000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2970000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>2969000</v>
       </c>
       <c r="G61" s="3">
         <v>2969000</v>
       </c>
       <c r="H61" s="3">
+        <v>2969000</v>
+      </c>
+      <c r="I61" s="3">
         <v>3044000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>3043000</v>
       </c>
       <c r="J61" s="3">
         <v>3043000</v>
       </c>
       <c r="K61" s="3">
-        <v>3042000</v>
+        <v>3043000</v>
       </c>
       <c r="L61" s="3">
         <v>3042000</v>
       </c>
       <c r="M61" s="3">
-        <v>3041000</v>
+        <v>3042000</v>
       </c>
       <c r="N61" s="3">
         <v>3041000</v>
       </c>
       <c r="O61" s="3">
-        <v>3136000</v>
+        <v>3041000</v>
       </c>
       <c r="P61" s="3">
         <v>3136000</v>
       </c>
       <c r="Q61" s="3">
+        <v>3136000</v>
+      </c>
+      <c r="R61" s="3">
         <v>3459000</v>
-      </c>
-      <c r="R61" s="3">
-        <v>3458000</v>
       </c>
       <c r="S61" s="3">
         <v>3458000</v>
       </c>
       <c r="T61" s="3">
+        <v>3458000</v>
+      </c>
+      <c r="U61" s="3">
         <v>3123000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3122200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2726200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2725700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3550000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3548500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>213000</v>
+      </c>
+      <c r="E62" s="3">
         <v>226000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>274000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>304000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>333000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18976000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18607000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18465000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18414000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18966000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>409000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>445000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>465000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18454000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>516000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>527000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>56998000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>58827000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>542200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>636800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>656000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>60250000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>631400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4425,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4348,8 +4499,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4573,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>155608000</v>
+      </c>
+      <c r="E66" s="3">
         <v>163009000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>160028000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>159832000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>154930000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>170408000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>161809000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>157386000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>148305000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>159651000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>156299000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>155098000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>152920000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>147217000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>156513000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>154280000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>210446000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>212523000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>212990900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>206486600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>204135100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>201590000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>203416200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4677,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4749,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,8 +4823,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4730,8 +4897,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,79 +4971,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1269000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1310000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3238000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3394000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3857000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4957000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5152000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4833000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4766000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4718000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11665000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11785000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12011000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11732000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11853000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11995000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12161000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12719000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-9655600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-9804200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-9971400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-9742000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-9310300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5119,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5193,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5267,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6198000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8253000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8389000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8362000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7931000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10110000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9657000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9548000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7427000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9339000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10551000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10064000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9065000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8213000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8523000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8460000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9378000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10009000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13653000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13352200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12890400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12995000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>15206000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5415,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E81" s="3">
         <v>403000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>142000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>459000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1086000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>260000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-499000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-66000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-98000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-785000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>107000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>226000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>64000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>121000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>142000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>166000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>446000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3164300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>149000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>167000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-143000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-327000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,8 +5598,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5472,8 +5670,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5744,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +5818,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +5892,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +5966,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6040,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>419000</v>
+      </c>
+      <c r="E89" s="3">
         <v>140000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>121000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>747000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-936000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>421000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>788000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>508000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-76000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>459000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>302000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>418000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>131000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>234000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>580000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>653000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>401000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>456000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>570000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>605800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-49800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3591000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>819700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,8 +6144,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5978,26 +6198,29 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-9700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-15700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-10400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-66700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6290,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6364,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-403000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-578000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-600000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>181000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>670000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-636000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1825000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-139000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-811000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-374000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-954000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>117000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-44000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-333000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-36000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-149000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>236000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-145000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1581300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-892500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>190800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3683000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1924000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,8 +6468,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6245,70 +6478,73 @@
         <v>-21000</v>
       </c>
       <c r="E96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-19000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-20000</v>
       </c>
       <c r="G96" s="3">
         <v>-20000</v>
       </c>
       <c r="H96" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-18000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-58000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-19000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-20000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-21000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-20000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-1000</v>
       </c>
       <c r="P96" s="3">
         <v>-1000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-2000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-2000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-2500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1700</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-1900</v>
       </c>
       <c r="W96" s="3">
         <v>-1900</v>
       </c>
       <c r="X96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6614,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6688,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,79 +6762,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-407000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-55000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>391000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-333000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-268000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>588000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1114000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-158000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>727000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>11000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>546000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-86000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-592000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-152000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-289000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-926000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-397000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-562400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>414200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>556600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-753400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>495400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6662,75 +6910,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-391000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-493000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-88000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>595000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-534000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>373000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>77000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>211000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-160000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>96000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-106000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>449000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-505000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-251000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>255000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-422000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>240000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-251200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-600500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>269100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-612400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>398000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1033000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>VOYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,98 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,221 +764,230 @@
         <v>1521000</v>
       </c>
       <c r="E8" s="3">
+        <v>1521000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1677000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2009000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2503000</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2231000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5505000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1719000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1705000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1844000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1878000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1972000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1848000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>837000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2259000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2114000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1981000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1281400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2185000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2192000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2059000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8822000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2541200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E9" s="3">
         <v>80000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>40000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>190000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>26000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>539000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>336000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>76000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>46000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>36000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>43000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>57000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>-27000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>86000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>74000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>100000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>-34400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>209000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>195000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>64000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>415000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>180700</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1454000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1441000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1637000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1819000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2477000</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2215000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5169000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1700000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1629000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1798000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1842000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1929000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1791000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>864000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2173000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2040000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1881000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1315800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1976000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1997000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1995000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>8407000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2360500</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,8 +1014,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,67 +1166,70 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>10000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3000</v>
       </c>
       <c r="F14" s="3">
         <v>3000</v>
       </c>
       <c r="G14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H14" s="3">
         <v>13000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>80000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>50000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>20000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>31000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>3000</v>
       </c>
       <c r="O14" s="3">
         <v>3000</v>
       </c>
       <c r="P14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q14" s="3">
         <v>26000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>7000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>14000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>15800</v>
-      </c>
-      <c r="V14" s="3">
-        <v>1000</v>
       </c>
       <c r="W14" s="3">
         <v>1000</v>
@@ -1219,13 +1238,16 @@
         <v>1000</v>
       </c>
       <c r="Y14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z14" s="3">
         <v>34000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1298,8 +1320,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1323,156 +1348,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1322000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1384000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1308000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1548000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1424000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-3049000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1682000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5510000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1711000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1618000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1716000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1670000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1671000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1699000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>667000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2018000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1811000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1905000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1000900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2078000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1965000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1883000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8422000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2825000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E18" s="3">
         <v>137000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>369000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>461000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1079000</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>549000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>87000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>128000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>208000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>301000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>149000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>170000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>241000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>303000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>76000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>280500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>107000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>227000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>176000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>400000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-283800</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1499,8 +1531,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,12 +1549,12 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1573,8 +1606,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,23 +1620,23 @@
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
-        <v>461000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1079000</v>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
         <v>549000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5000</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
@@ -1647,8 +1683,11 @@
       <c r="Z21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1656,221 +1695,230 @@
         <v>46000</v>
       </c>
       <c r="E22" s="3">
+        <v>46000</v>
+      </c>
+      <c r="F22" s="3">
         <v>69000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>50000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>51000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>54000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>48000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>138000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>50000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>43000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>48000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>59000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>58000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>47000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>90000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>55000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>62000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>55000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>62300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>67000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>72000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>63000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>390000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>72100</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E23" s="3">
         <v>91000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>411000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1028000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1038000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>501000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-143000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-42000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>44000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>80000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>149000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>243000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>102000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>80000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>186000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>241000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>21000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>218200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>40000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>155000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>113000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>10000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-355900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E24" s="3">
         <v>7000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-202000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>40000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>112000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-48000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>55000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-72000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-264000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>33000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-41000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>45000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>42000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-40000</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>93000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-29000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-119400</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1943,156 +1991,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E26" s="3">
         <v>84000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>502000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>371000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>916000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1086000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>446000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-71000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-48000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>50000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>344000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>144000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>210000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>93000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>121000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>165000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>196000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>17000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>176200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>80000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>155000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>20000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>39000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-236500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E27" s="3">
         <v>27000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>398000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>143000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>465000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1072000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>318000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-136000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>27000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>334000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>111000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>184000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>84000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>57000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>142000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>138000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>94700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>15000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>103000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>19000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>10000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2165,8 +2222,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2174,73 +2234,76 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>5000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-1000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-6000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>14000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-58000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-363000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-93000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-128000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-1119000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-4000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>42000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>64000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>28000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>429000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-3259000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>134000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>64000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-162000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-337000</v>
       </c>
-      <c r="Z29" s="3" t="s">
+      <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2313,8 +2376,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2387,8 +2453,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2404,12 +2473,12 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2461,82 +2530,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E33" s="3">
         <v>27000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>403000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>142000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>459000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1086000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>260000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-499000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-66000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-98000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-785000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>107000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>226000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>64000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>121000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>142000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>166000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>446000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3164300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>149000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>167000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-143000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-327000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2609,161 +2684,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E35" s="3">
         <v>27000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>403000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>142000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>459000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1086000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>260000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-499000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-66000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-98000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-785000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>107000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>226000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>64000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>121000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>142000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>166000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>446000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3164300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>149000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>167000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-143000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-327000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2790,8 +2874,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2818,82 +2903,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1039000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1125000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1573000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1818000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1850000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1316000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1723000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1136000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1149000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1085000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1249000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1450000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1541000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1340000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1568000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1885000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1620000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1597000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1435000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2072900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2713300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2531300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2229000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2951600</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2966,22 +3055,25 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13079000</v>
+      </c>
+      <c r="E43" s="3">
         <v>13261000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13635000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13580000</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>8</v>
@@ -2995,8 +3087,8 @@
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -3040,8 +3132,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3114,8 +3209,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3188,8 +3286,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3262,82 +3363,88 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>39911000</v>
+      </c>
+      <c r="E47" s="3">
         <v>41978000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>44387000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>47491000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>45341000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>44660000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>54841000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>54357000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>54264000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>51772000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>52700000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>67153000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>65417000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>64204000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>49918000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>62277000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>62241000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>63014000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>64644000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>93681000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>90575600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>89116700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>61153000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>93051100</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3386,17 +3493,17 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V48" s="3">
         <v>107000</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>8</v>
@@ -3404,14 +3511,17 @@
       <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z48" s="3">
         <v>112300</v>
       </c>
-      <c r="Z48" s="3" t="s">
+      <c r="AA48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3460,32 +3570,35 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
+      <c r="S49" s="3">
+        <v>0</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V49" s="3">
         <v>186000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>196000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>197800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>208000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>219500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>227300</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3558,8 +3671,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3632,82 +3748,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1795000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1405000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>986000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>691000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>690000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>935000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>21889000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>21494000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>21249000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20902000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>22953000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>401000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>576000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>864000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>21655000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1122000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1266000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>58102000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>59833000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1663700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1756900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2055700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>66368800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1128100</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3780,82 +3902,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>147520000</v>
+      </c>
+      <c r="E54" s="3">
         <v>161806000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>171262000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>168417000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>168194000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>162861000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>180518000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>171466000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>166934000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>155732000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>168990000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>166850000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>165162000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>161985000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>155430000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>165036000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>162740000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>219824000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>222532000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>226643900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>219838800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>217025500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>214585000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>218622200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3882,8 +4010,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3910,8 +4039,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3984,8 +4114,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4023,10 +4156,10 @@
         <v>1000</v>
       </c>
       <c r="O58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P58" s="3">
         <v>97000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1000</v>
       </c>
       <c r="Q58" s="3">
         <v>1000</v>
@@ -4038,102 +4171,108 @@
         <v>1000</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>337000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>336600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>735900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>735500</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>81237000</v>
+      </c>
+      <c r="E59" s="3">
         <v>94232000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>101616000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>97995000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>98102000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>93872000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>90905000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>83454000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>80129000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>71002000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>83043000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>82049000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>81887000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>79627000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>71297000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>83034000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>80599000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>79668000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>79471000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>111603200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>105725300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>103261300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>67883100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>101627000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4206,156 +4345,165 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2385000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2406000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2595000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2970000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>2969000</v>
       </c>
       <c r="H61" s="3">
         <v>2969000</v>
       </c>
       <c r="I61" s="3">
+        <v>2969000</v>
+      </c>
+      <c r="J61" s="3">
         <v>3044000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>3043000</v>
       </c>
       <c r="K61" s="3">
         <v>3043000</v>
       </c>
       <c r="L61" s="3">
-        <v>3042000</v>
+        <v>3043000</v>
       </c>
       <c r="M61" s="3">
         <v>3042000</v>
       </c>
       <c r="N61" s="3">
-        <v>3041000</v>
+        <v>3042000</v>
       </c>
       <c r="O61" s="3">
         <v>3041000</v>
       </c>
       <c r="P61" s="3">
-        <v>3136000</v>
+        <v>3041000</v>
       </c>
       <c r="Q61" s="3">
         <v>3136000</v>
       </c>
       <c r="R61" s="3">
+        <v>3136000</v>
+      </c>
+      <c r="S61" s="3">
         <v>3459000</v>
-      </c>
-      <c r="S61" s="3">
-        <v>3458000</v>
       </c>
       <c r="T61" s="3">
         <v>3458000</v>
       </c>
       <c r="U61" s="3">
+        <v>3458000</v>
+      </c>
+      <c r="V61" s="3">
         <v>3123000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3122200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2726200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2725700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3550000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3548500</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E62" s="3">
         <v>213000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>226000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>274000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>304000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>333000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18976000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18607000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18465000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18414000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18966000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>409000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>445000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>465000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>18454000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>516000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>527000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>56998000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>58827000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>542200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>636800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>656000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>60250000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>631400</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4428,8 +4576,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4502,8 +4653,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4576,82 +4730,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>143004000</v>
+      </c>
+      <c r="E66" s="3">
         <v>155608000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>163009000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>160028000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>159832000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>154930000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>170408000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>161809000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>157386000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>148305000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>159651000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>156299000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>155098000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>152920000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>147217000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>156513000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>154280000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>210446000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>212523000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>212990900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>206486600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>204135100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>201590000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>203416200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4678,8 +4838,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4752,8 +4913,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4826,8 +4990,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4900,8 +5067,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4974,82 +5144,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1201000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1269000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1310000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3238000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3394000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3857000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4957000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5152000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4833000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4766000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4718000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11665000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11785000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12011000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11732000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11853000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11995000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12161000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12719000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-9655600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-9804200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-9971400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-9742000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-9310300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5122,8 +5298,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5196,8 +5375,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5270,82 +5452,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4516000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6198000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8253000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8389000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8362000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7931000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10110000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9657000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9548000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7427000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9339000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10551000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10064000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9065000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8213000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8523000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8460000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9378000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10009000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13653000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13352200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12890400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12995000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>15206000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5418,161 +5606,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E81" s="3">
         <v>27000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>403000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>142000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>459000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1086000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>260000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-499000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-66000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-98000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-785000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>107000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>226000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>64000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>121000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>142000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>166000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>446000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3164300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>149000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>167000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-143000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-327000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5599,8 +5796,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5673,8 +5871,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5747,8 +5948,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5821,8 +6025,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5895,8 +6102,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5969,8 +6179,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6043,82 +6256,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>296000</v>
+      </c>
+      <c r="E89" s="3">
         <v>419000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>140000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>121000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>747000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-936000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>421000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>788000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>508000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-76000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>459000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>302000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>418000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>131000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>234000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>580000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>653000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>401000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>456000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>570000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>605800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-49800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3591000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>819700</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6145,8 +6364,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6201,26 +6421,29 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-9700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-15700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-10400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-66700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6293,8 +6516,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6367,82 +6593,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1171000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-403000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-578000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>181000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>670000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-636000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1825000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-139000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-811000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-374000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-954000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>117000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-333000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-36000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-149000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>236000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-145000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1581300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-892500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>190800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3683000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1924000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6469,82 +6701,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-21000</v>
+        <v>-20000</v>
       </c>
       <c r="E96" s="3">
         <v>-21000</v>
       </c>
       <c r="F96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-19000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-20000</v>
       </c>
       <c r="H96" s="3">
         <v>-20000</v>
       </c>
       <c r="I96" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-18000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-58000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-19000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-20000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-21000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-20000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-2000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q96" s="3">
         <v>-1000</v>
       </c>
       <c r="R96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-2000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-2000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-2500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1700</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-1900</v>
       </c>
       <c r="X96" s="3">
         <v>-1900</v>
       </c>
       <c r="Y96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6617,8 +6853,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6691,8 +6930,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6765,82 +7007,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>732000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-407000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-55000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>391000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-333000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-268000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>588000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1114000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-158000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>727000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>11000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>546000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-86000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-592000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-152000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-289000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-926000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-397000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-562400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>414200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>556600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-753400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>495400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6913,78 +7161,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-391000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-493000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-88000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>595000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-534000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>373000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>77000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>211000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-160000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>96000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-106000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>449000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-505000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-251000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>255000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-422000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>240000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-251200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-600500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>269100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-612400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>398000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1033000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>VOYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,329 +665,341 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1521000</v>
+        <v>1350000</v>
       </c>
       <c r="E8" s="3">
         <v>1521000</v>
       </c>
       <c r="F8" s="3">
+        <v>1521000</v>
+      </c>
+      <c r="G8" s="3">
         <v>1677000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2009000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2503000</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2231000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5505000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1719000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1705000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1844000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1878000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1972000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1848000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>837000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2259000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2114000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1981000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1281400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2185000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2192000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2059000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>8822000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2541200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E9" s="3">
         <v>67000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>80000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>40000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>190000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>26000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>539000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>336000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>76000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>46000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>36000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>43000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>57000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>-27000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>86000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>74000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>100000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>-34400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>209000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>195000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>64000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>415000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>180700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1340000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1454000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1441000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1637000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1819000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2477000</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2215000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5169000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1700000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1629000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1798000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1842000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1929000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1791000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>864000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2173000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2040000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1881000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1315800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1976000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1997000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1995000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>8407000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2360500</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,8 +1027,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1105,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,70 +1185,73 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3000</v>
       </c>
       <c r="G14" s="3">
         <v>3000</v>
       </c>
       <c r="H14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I14" s="3">
         <v>13000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>80000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>50000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>20000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>31000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>3000</v>
       </c>
       <c r="P14" s="3">
         <v>3000</v>
       </c>
       <c r="Q14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R14" s="3">
         <v>26000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>7000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>14000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>15800</v>
-      </c>
-      <c r="W14" s="3">
-        <v>1000</v>
       </c>
       <c r="X14" s="3">
         <v>1000</v>
@@ -1241,13 +1260,16 @@
         <v>1000</v>
       </c>
       <c r="Z14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA14" s="3">
         <v>34000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1323,8 +1345,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1349,162 +1374,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1206000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1322000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1384000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1308000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1548000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1424000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-3049000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1682000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5510000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1711000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1618000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1716000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1670000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1671000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1699000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>667000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2018000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1811000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1905000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2078000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1965000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1883000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8422000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2825000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E18" s="3">
         <v>199000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>137000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>369000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>461000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1079000</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>549000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>87000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>128000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>208000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>301000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>149000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>170000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>241000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>303000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>76000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>280500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>107000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>227000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>176000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>400000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-283800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1532,8 +1564,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1552,12 +1585,12 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1609,8 +1642,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1632,14 +1668,14 @@
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>549000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5000</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
@@ -1686,239 +1722,251 @@
       <c r="AA21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>46000</v>
+        <v>43000</v>
       </c>
       <c r="E22" s="3">
         <v>46000</v>
       </c>
       <c r="F22" s="3">
+        <v>46000</v>
+      </c>
+      <c r="G22" s="3">
         <v>69000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>50000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>51000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>54000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>48000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>138000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>50000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>43000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>48000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>59000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>58000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>47000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>90000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>55000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>62000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>55000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>62300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>67000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>72000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>63000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>390000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>72100</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E23" s="3">
         <v>153000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>91000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>411000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1028000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1038000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>501000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-143000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-42000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>44000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>80000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>149000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>243000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>102000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>80000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>186000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>241000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>21000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>218200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>40000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>155000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>113000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>10000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-355900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E24" s="3">
         <v>10000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-202000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>40000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>112000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-48000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>55000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-72000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-264000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>33000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-41000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>45000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>42000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-40000</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>93000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-29000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-119400</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1994,162 +2042,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E26" s="3">
         <v>143000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>84000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>502000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>371000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>916000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1086000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>446000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-71000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-48000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>50000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>344000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>144000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>210000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>93000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>121000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>165000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>196000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>17000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>176200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>80000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>155000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>20000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>39000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-236500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E27" s="3">
         <v>64000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>27000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>398000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>143000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>465000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1072000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>318000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-136000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>27000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>334000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>111000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>184000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>84000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>57000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>142000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>138000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>17000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>94700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>15000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>103000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>19000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>10000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2225,8 +2282,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2237,73 +2297,76 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>5000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-1000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-6000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>14000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-58000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-363000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-93000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-128000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-1119000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-4000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>42000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-20000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>64000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>28000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>429000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-3259000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>134000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>64000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-162000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-337000</v>
       </c>
-      <c r="AA29" s="3" t="s">
+      <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,8 +2442,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2456,8 +2522,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2476,12 +2545,12 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2533,85 +2602,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E33" s="3">
         <v>64000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>27000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>403000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>142000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>459000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1086000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>260000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-499000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-66000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-98000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-785000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>107000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>226000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>64000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>121000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>142000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>166000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>446000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3164300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>149000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>167000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-143000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-327000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,167 +2762,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E35" s="3">
         <v>64000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>27000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>403000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>142000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>459000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1086000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>260000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-499000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-66000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-98000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-785000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>107000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>226000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>64000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>121000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>142000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>166000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>446000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3164300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>149000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>167000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-143000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-327000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +2959,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2904,85 +2989,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>935000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1039000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1125000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1573000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1818000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1850000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1316000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1723000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1136000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1149000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1085000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1249000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1450000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1541000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1340000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1568000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1885000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1620000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1597000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1435000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2072900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2713300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2531300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2229000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2951600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3058,25 +3147,28 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13561000</v>
+      </c>
+      <c r="E43" s="3">
         <v>13079000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13261000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13635000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13580000</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
@@ -3090,8 +3182,8 @@
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -3135,8 +3227,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3212,8 +3307,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3289,8 +3387,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3366,85 +3467,91 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>38408000</v>
+      </c>
+      <c r="E47" s="3">
         <v>39911000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>41978000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>44387000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>47491000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>45341000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>44660000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>54841000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>54357000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>54264000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>51772000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>52700000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>67153000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>65417000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>64204000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>49918000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>62277000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>62241000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>63014000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>64644000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>93681000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>90575600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>89116700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>61153000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>93051100</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3496,17 +3603,17 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W48" s="3">
         <v>107000</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>8</v>
@@ -3514,37 +3621,40 @@
       <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA48" s="3">
         <v>112300</v>
       </c>
-      <c r="AA48" s="3" t="s">
+      <c r="AB48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>824000</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3573,32 +3683,35 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
+      <c r="T49" s="3">
+        <v>0</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W49" s="3">
         <v>186000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>196000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>197800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>208000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>219500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>227300</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3674,8 +3787,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,85 +3867,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1931000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1795000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1405000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>986000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>691000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>690000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>935000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>21889000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>21494000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>21249000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20902000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>22953000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>401000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>576000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>864000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>21655000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1122000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1266000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>58102000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>59833000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1663700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1756900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2055700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>66368800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1128100</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3905,85 +4027,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>144048000</v>
+      </c>
+      <c r="E54" s="3">
         <v>147520000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>161806000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>171262000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>168417000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>168194000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>162861000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>180518000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>171466000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>166934000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>155732000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>168990000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>166850000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>165162000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>161985000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>155430000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>165036000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>162740000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>219824000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>222532000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>226643900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>219838800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>217025500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>214585000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>218622200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,8 +4139,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4040,8 +4169,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4117,13 +4247,16 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1000</v>
+        <v>141000</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
@@ -4159,10 +4292,10 @@
         <v>1000</v>
       </c>
       <c r="P58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>97000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>1000</v>
       </c>
       <c r="R58" s="3">
         <v>1000</v>
@@ -4174,105 +4307,111 @@
         <v>1000</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>337000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>336600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>735900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>735500</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>77358000</v>
+      </c>
+      <c r="E59" s="3">
         <v>81237000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>94232000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>101616000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>97995000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>98102000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>93872000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>90905000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>83454000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>80129000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>71002000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>83043000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>82049000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>81887000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>79627000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>71297000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>83034000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>80599000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>79668000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>79471000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>111603200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>105725300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>103261300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>67883100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>101627000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4348,162 +4487,171 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2385000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2406000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2595000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2970000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>2969000</v>
       </c>
       <c r="I61" s="3">
         <v>2969000</v>
       </c>
       <c r="J61" s="3">
+        <v>2969000</v>
+      </c>
+      <c r="K61" s="3">
         <v>3044000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>3043000</v>
       </c>
       <c r="L61" s="3">
         <v>3043000</v>
       </c>
       <c r="M61" s="3">
-        <v>3042000</v>
+        <v>3043000</v>
       </c>
       <c r="N61" s="3">
         <v>3042000</v>
       </c>
       <c r="O61" s="3">
-        <v>3041000</v>
+        <v>3042000</v>
       </c>
       <c r="P61" s="3">
         <v>3041000</v>
       </c>
       <c r="Q61" s="3">
-        <v>3136000</v>
+        <v>3041000</v>
       </c>
       <c r="R61" s="3">
         <v>3136000</v>
       </c>
       <c r="S61" s="3">
+        <v>3136000</v>
+      </c>
+      <c r="T61" s="3">
         <v>3459000</v>
-      </c>
-      <c r="T61" s="3">
-        <v>3458000</v>
       </c>
       <c r="U61" s="3">
         <v>3458000</v>
       </c>
       <c r="V61" s="3">
+        <v>3458000</v>
+      </c>
+      <c r="W61" s="3">
         <v>3123000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3122200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2726200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2725700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3550000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3548500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E62" s="3">
         <v>205000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>213000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>226000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>274000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>304000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>333000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18976000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18607000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18465000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18414000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18966000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>409000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>445000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>465000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>18454000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>516000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>527000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>56998000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>58827000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>542200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>636800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>656000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>60250000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>631400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4579,8 +4727,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4656,8 +4807,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4733,85 +4887,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>139955000</v>
+      </c>
+      <c r="E66" s="3">
         <v>143004000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>155608000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>163009000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>160028000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>159832000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>154930000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>170408000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>161809000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>157386000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>148305000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>159651000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>156299000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>155098000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>152920000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>147217000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>156513000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>154280000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>210446000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>212523000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>212990900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>206486600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>204135100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>201590000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>203416200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4839,8 +4999,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4916,8 +5077,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4993,8 +5157,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5070,8 +5237,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5147,85 +5317,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-994000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1201000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1269000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1310000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3238000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3394000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3857000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4957000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5152000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4833000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4766000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4718000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11665000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11785000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12011000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11732000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11853000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11995000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12161000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-12719000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-9655600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-9804200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-9971400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-9742000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-9310300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5477,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5378,8 +5557,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5455,85 +5637,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4093000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4516000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6198000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8253000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8389000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8362000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7931000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10110000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9657000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9548000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7427000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9339000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10551000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10064000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9065000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8213000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8523000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8460000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9378000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10009000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13653000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13352200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12890400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12995000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>15206000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5609,167 +5797,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E81" s="3">
         <v>64000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>27000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>403000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>142000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>459000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1086000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>260000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-499000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-66000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-98000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-785000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>107000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>226000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>64000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>121000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>142000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>166000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>446000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3164300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>149000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>167000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-143000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-327000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5797,8 +5994,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5874,8 +6072,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5951,8 +6152,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6028,8 +6232,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6105,8 +6312,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6182,8 +6392,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6259,85 +6472,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>418000</v>
+      </c>
+      <c r="E89" s="3">
         <v>296000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>419000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>140000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>121000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>747000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-936000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>421000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>788000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>508000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-76000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>459000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>302000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>418000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>131000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>234000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>580000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>653000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>401000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>456000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>570000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>605800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-49800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3591000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>819700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6365,8 +6584,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6424,26 +6644,29 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-9700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-15700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-10400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-66700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6519,8 +6742,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6596,85 +6822,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-372000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1171000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-403000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-578000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>181000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>670000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-636000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1825000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-139000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-811000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-374000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-954000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>117000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-44000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-333000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-36000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-149000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>236000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-145000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1581300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-892500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>190800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3683000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1924000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6702,85 +6934,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-20000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-21000</v>
       </c>
       <c r="F96" s="3">
         <v>-21000</v>
       </c>
       <c r="G96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-19000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-20000</v>
       </c>
       <c r="I96" s="3">
         <v>-20000</v>
       </c>
       <c r="J96" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-18000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-58000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-19000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-20000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-21000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-20000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-2000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-1000</v>
       </c>
       <c r="R96" s="3">
         <v>-1000</v>
       </c>
       <c r="S96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-2000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-2000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-2500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1700</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-1900</v>
       </c>
       <c r="Y96" s="3">
         <v>-1900</v>
       </c>
       <c r="Z96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6856,8 +7092,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6933,8 +7172,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,85 +7252,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="E100" s="3">
         <v>732000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-407000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-55000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>391000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-333000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-268000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>588000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1114000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-158000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>727000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>11000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>546000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-86000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-592000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-152000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-289000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-926000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-397000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-562400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>414200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>556600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-753400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>495400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7164,81 +7412,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-143000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-391000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-493000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-88000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>595000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-534000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>373000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>77000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>211000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-160000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>96000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-106000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>449000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-505000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-251000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>255000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-422000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>240000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-251200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-600500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>269100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-612400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>398000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1033000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>VOYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,341 +665,353 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1530000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1350000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1521000</v>
       </c>
       <c r="F8" s="3">
         <v>1521000</v>
       </c>
       <c r="G8" s="3">
+        <v>1521000</v>
+      </c>
+      <c r="H8" s="3">
         <v>1677000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2009000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2503000</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2231000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5505000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1719000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1705000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1844000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1878000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1972000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1848000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>837000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2259000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2114000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1981000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1281400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2185000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2192000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2059000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>8822000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2541200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E9" s="3">
         <v>10000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>67000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>80000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>40000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>190000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>26000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>539000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>336000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>76000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>46000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>36000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>43000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>57000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>-27000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>86000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>74000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>100000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>-34400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>209000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>195000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>64000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>415000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>180700</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1340000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1454000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1441000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1637000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1819000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2477000</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2215000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5169000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1700000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1629000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1798000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1842000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1929000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1791000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>864000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2173000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2040000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1881000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1315800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1976000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1997000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1995000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>8407000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2360500</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1040,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1108,8 +1121,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,73 +1204,76 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E14" s="3">
         <v>12000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3000</v>
       </c>
       <c r="H14" s="3">
         <v>3000</v>
       </c>
       <c r="I14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J14" s="3">
         <v>13000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>80000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>50000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>20000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>31000</v>
-      </c>
-      <c r="P14" s="3">
-        <v>3000</v>
       </c>
       <c r="Q14" s="3">
         <v>3000</v>
       </c>
       <c r="R14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S14" s="3">
         <v>26000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>7000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>14000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>15800</v>
-      </c>
-      <c r="X14" s="3">
-        <v>1000</v>
       </c>
       <c r="Y14" s="3">
         <v>1000</v>
@@ -1263,13 +1282,16 @@
         <v>1000</v>
       </c>
       <c r="AA14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB14" s="3">
         <v>34000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1348,8 +1370,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1375,168 +1400,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1399000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1206000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1322000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1384000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1308000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1548000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1424000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-3049000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1682000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5510000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1711000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1618000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1716000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1670000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1671000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1699000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>667000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2018000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1811000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1905000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1000900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2078000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1965000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1883000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8422000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2825000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E18" s="3">
         <v>144000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>199000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>137000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>369000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>461000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1079000</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>549000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>87000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>128000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>208000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>301000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>149000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>170000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>241000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>303000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>76000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>280500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>107000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>227000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>176000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>400000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-283800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1565,8 +1597,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1588,12 +1621,12 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1645,13 +1678,16 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>130000</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -1671,14 +1707,14 @@
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>549000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5000</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
@@ -1725,248 +1761,260 @@
       <c r="AB21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E22" s="3">
         <v>43000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>46000</v>
       </c>
       <c r="F22" s="3">
         <v>46000</v>
       </c>
       <c r="G22" s="3">
+        <v>46000</v>
+      </c>
+      <c r="H22" s="3">
         <v>69000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>50000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>51000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>54000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>48000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>138000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>50000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>43000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>48000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>59000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>58000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>47000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>90000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>55000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>62000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>55000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>62300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>67000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>72000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>63000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>390000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>72100</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E23" s="3">
         <v>101000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>153000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>91000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>411000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1028000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1038000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>501000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-143000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-42000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>44000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>80000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>149000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>243000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>102000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>80000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>186000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>241000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>21000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>218200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>40000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>155000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>113000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>10000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-355900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E24" s="3">
         <v>32000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-202000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>40000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>112000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-48000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>55000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-72000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-264000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>33000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-41000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>21000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>45000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>42000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-40000</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>93000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-29000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-119400</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2045,168 +2093,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E26" s="3">
         <v>69000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>143000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>84000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>502000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>371000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>916000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1086000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>446000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-71000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-48000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>50000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>344000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>144000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>210000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>93000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>121000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>165000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>196000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>17000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>176200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>80000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>155000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>20000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>39000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-236500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E27" s="3">
         <v>193000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>64000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>27000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>398000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>143000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>465000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1072000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>318000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-136000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>27000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>334000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>111000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>184000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>84000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>57000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>142000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>138000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>17000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>94700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>15000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>103000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>19000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>10000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2285,8 +2342,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2300,73 +2360,76 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>5000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-1000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-6000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>14000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-58000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-363000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-93000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-128000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-1119000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>42000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-20000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>64000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>28000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>429000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-3259000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>134000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>64000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-162000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-337000</v>
       </c>
-      <c r="AB29" s="3" t="s">
+      <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2445,8 +2508,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2525,8 +2591,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2548,12 +2617,12 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2605,88 +2674,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E33" s="3">
         <v>193000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>64000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>27000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>403000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>142000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>459000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1086000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>260000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-499000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-66000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-98000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-785000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>107000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>226000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>64000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>121000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>142000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>166000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>446000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3164300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>149000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>167000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-143000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-327000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2765,173 +2840,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E35" s="3">
         <v>193000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>64000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>27000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>403000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>142000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>459000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1086000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>260000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-499000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-66000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-98000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-785000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>107000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>226000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>64000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>121000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>142000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>166000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>446000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3164300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>149000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>167000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-143000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-327000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2960,8 +3044,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2990,88 +3075,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1007000</v>
+      </c>
+      <c r="E41" s="3">
         <v>935000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1039000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1125000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1573000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1818000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1850000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1316000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1723000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1136000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1149000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1085000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1249000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1450000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1541000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1340000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1568000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1885000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1620000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1597000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1435000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2072900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2713300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2531300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2229000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2951600</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3150,28 +3239,31 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13341000</v>
+      </c>
+      <c r="E43" s="3">
         <v>13561000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13079000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13261000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13635000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13580000</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
@@ -3185,8 +3277,8 @@
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -3230,8 +3322,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3310,8 +3405,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3390,8 +3488,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3470,88 +3571,94 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>37723000</v>
+      </c>
+      <c r="E47" s="3">
         <v>38408000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>39911000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>41978000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>44387000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>47491000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>45341000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>44660000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>54841000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>54357000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>54264000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>51772000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>52700000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>67153000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>65417000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>64204000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>49918000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>62277000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>62241000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>63014000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>64644000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>93681000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>90575600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>89116700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>61153000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>93051100</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3606,17 +3713,17 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
+      <c r="U48" s="3">
+        <v>0</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X48" s="3">
         <v>107000</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>8</v>
@@ -3624,22 +3731,25 @@
       <c r="Z48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AA48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB48" s="3">
         <v>112300</v>
       </c>
-      <c r="AB48" s="3" t="s">
+      <c r="AC48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>958000</v>
+      </c>
+      <c r="E49" s="3">
         <v>824000</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
@@ -3656,8 +3766,8 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3686,32 +3796,35 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
+      <c r="U49" s="3">
+        <v>0</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X49" s="3">
         <v>186000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>196000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>197800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>208000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>219500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>227300</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3790,8 +3903,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3870,88 +3986,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1924000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1931000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1795000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1405000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>986000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>691000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>690000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>935000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>21889000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>21494000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>21249000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>20902000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>22953000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>401000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>576000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>864000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>21655000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1122000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1266000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>58102000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>59833000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1663700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1756900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2055700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>66368800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1128100</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4030,88 +4152,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>147652000</v>
+      </c>
+      <c r="E54" s="3">
         <v>144048000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>147520000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>161806000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>171262000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>168417000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>168194000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>162861000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>180518000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>171466000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>166934000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>155732000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>168990000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>166850000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>165162000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>161985000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>155430000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>165036000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>162740000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>219824000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>222532000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>226643900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>219838800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>217025500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>214585000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>218622200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4140,8 +4268,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4170,8 +4299,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4250,8 +4380,11 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4259,7 +4392,7 @@
         <v>141000</v>
       </c>
       <c r="E58" s="3">
-        <v>1000</v>
+        <v>141000</v>
       </c>
       <c r="F58" s="3">
         <v>1000</v>
@@ -4295,10 +4428,10 @@
         <v>1000</v>
       </c>
       <c r="Q58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R58" s="3">
         <v>97000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1000</v>
       </c>
       <c r="S58" s="3">
         <v>1000</v>
@@ -4310,108 +4443,114 @@
         <v>1000</v>
       </c>
       <c r="V58" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>337000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>336600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>735900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>735500</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>81476000</v>
+      </c>
+      <c r="E59" s="3">
         <v>77358000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>81237000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>94232000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>101616000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>97995000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>98102000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>93872000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>90905000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>83454000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>80129000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>71002000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>83043000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>82049000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>81887000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>79627000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>71297000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>83034000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>80599000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>79668000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>79471000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>111603200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>105725300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>103261300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>67883100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>101627000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4490,8 +4629,11 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4499,159 +4641,165 @@
         <v>2094000</v>
       </c>
       <c r="E61" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2385000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2406000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2595000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2970000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>2969000</v>
       </c>
       <c r="J61" s="3">
         <v>2969000</v>
       </c>
       <c r="K61" s="3">
+        <v>2969000</v>
+      </c>
+      <c r="L61" s="3">
         <v>3044000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>3043000</v>
       </c>
       <c r="M61" s="3">
         <v>3043000</v>
       </c>
       <c r="N61" s="3">
-        <v>3042000</v>
+        <v>3043000</v>
       </c>
       <c r="O61" s="3">
         <v>3042000</v>
       </c>
       <c r="P61" s="3">
-        <v>3041000</v>
+        <v>3042000</v>
       </c>
       <c r="Q61" s="3">
         <v>3041000</v>
       </c>
       <c r="R61" s="3">
-        <v>3136000</v>
+        <v>3041000</v>
       </c>
       <c r="S61" s="3">
         <v>3136000</v>
       </c>
       <c r="T61" s="3">
+        <v>3136000</v>
+      </c>
+      <c r="U61" s="3">
         <v>3459000</v>
-      </c>
-      <c r="U61" s="3">
-        <v>3458000</v>
       </c>
       <c r="V61" s="3">
         <v>3458000</v>
       </c>
       <c r="W61" s="3">
+        <v>3458000</v>
+      </c>
+      <c r="X61" s="3">
         <v>3123000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3122200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2726200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2725700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3550000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3548500</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3">
         <v>196000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>205000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>213000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>226000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>274000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>304000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>333000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18976000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18607000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18465000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18414000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18966000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>409000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>445000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>465000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>18454000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>516000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>527000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>56998000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>58827000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>542200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>636800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>656000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>60250000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>631400</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4730,8 +4878,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4810,8 +4961,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4890,88 +5044,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>143183000</v>
+      </c>
+      <c r="E66" s="3">
         <v>139955000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>143004000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>155608000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>163009000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>160028000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>159832000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>154930000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>170408000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>161809000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>157386000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>148305000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>159651000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>156299000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>155098000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>152920000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>147217000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>156513000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>154280000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>210446000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>212523000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>212990900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>206486600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>204135100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>201590000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>203416200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5000,8 +5160,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5080,8 +5241,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5160,8 +5324,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5240,8 +5407,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5320,88 +5490,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-342000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-994000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1201000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1269000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1310000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3238000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3394000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3857000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4957000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5152000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4833000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4766000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4718000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11665000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11785000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12011000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11732000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11853000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11995000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-12161000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-12719000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-9655600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-9804200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-9971400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-9742000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-9310300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5480,8 +5656,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5560,8 +5739,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5640,88 +5822,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4469000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4093000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4516000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6198000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8253000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8389000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8362000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7931000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10110000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9657000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9548000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7427000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9339000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10551000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10064000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9065000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8213000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8523000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8460000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9378000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10009000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13653000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13352200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12890400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>12995000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>15206000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5800,173 +5988,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E81" s="3">
         <v>193000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>64000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>27000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>403000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>142000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>459000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1086000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>260000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-499000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-66000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-98000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-785000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>107000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>226000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>64000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>121000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>142000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>166000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>446000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3164300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>149000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>167000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-143000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-327000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5995,8 +6192,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6075,8 +6273,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6155,8 +6356,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6235,8 +6439,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6315,8 +6522,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6395,8 +6605,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6475,88 +6688,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E89" s="3">
         <v>418000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>296000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>419000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>140000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>121000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>747000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-936000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>421000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>788000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>508000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-76000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>459000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>302000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>418000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>131000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>234000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>580000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>653000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>401000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>456000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>570000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>605800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-49800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3591000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>819700</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6585,8 +6804,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6647,26 +6867,29 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-15700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-10400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-66700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6745,8 +6968,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6825,88 +7051,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-372000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1171000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-403000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-578000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>181000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>670000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-636000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1825000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-139000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-811000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-374000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-954000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>117000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-44000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-333000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-36000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-149000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>236000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-145000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1581300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-892500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>190800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3683000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1924000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6935,88 +7167,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-22000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-20000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-21000</v>
       </c>
       <c r="G96" s="3">
         <v>-21000</v>
       </c>
       <c r="H96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-19000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-20000</v>
       </c>
       <c r="J96" s="3">
         <v>-20000</v>
       </c>
       <c r="K96" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-18000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-58000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-19000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-20000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-21000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-2000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-1000</v>
       </c>
       <c r="S96" s="3">
         <v>-1000</v>
       </c>
       <c r="T96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-2000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-2000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-2500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-1900</v>
       </c>
       <c r="Z96" s="3">
         <v>-1900</v>
       </c>
       <c r="AA96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-8000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7095,8 +7331,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7175,8 +7414,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7255,88 +7497,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-150000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>732000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-407000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-55000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>391000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-333000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-268000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>588000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1114000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-158000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>727000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>11000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>546000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-86000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-592000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-152000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-289000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-926000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-397000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-562400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>414200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>556600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-753400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>495400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7415,84 +7663,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-104000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-143000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-391000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-493000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-88000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>595000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-534000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>373000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>77000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>211000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-160000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>96000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-106000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>449000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-505000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-251000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>255000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-422000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>240000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-251200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-600500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>269100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-612400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>398000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1033000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>VOYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,353 +665,365 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1835000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1530000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1350000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1521000</v>
       </c>
       <c r="G8" s="3">
         <v>1521000</v>
       </c>
       <c r="H8" s="3">
+        <v>1506000</v>
+      </c>
+      <c r="I8" s="3">
         <v>1677000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2009000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2503000</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2231000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5505000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1719000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1705000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1844000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1878000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1972000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1848000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>837000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2259000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2114000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1981000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1281400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2185000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2192000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2059000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>8822000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2541200</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E9" s="3">
         <v>30000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>67000</v>
       </c>
-      <c r="G9" s="3">
-        <v>80000</v>
-      </c>
       <c r="H9" s="3">
+        <v>62000</v>
+      </c>
+      <c r="I9" s="3">
         <v>40000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>190000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>26000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>539000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>336000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>76000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>46000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>36000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>43000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>57000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>-27000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>86000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>74000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>100000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>-34400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>209000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>195000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>64000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>415000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>180700</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1776000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1500000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1340000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1454000</v>
       </c>
-      <c r="G10" s="3">
-        <v>1441000</v>
-      </c>
       <c r="H10" s="3">
+        <v>1444000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1637000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1819000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2477000</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2215000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5169000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1700000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1629000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1798000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1842000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1929000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1791000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>864000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2173000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2040000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1881000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1315800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1976000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1997000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1995000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>8407000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2360500</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1053,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1124,8 +1137,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,76 +1223,79 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E14" s="3">
         <v>8000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3000</v>
       </c>
       <c r="I14" s="3">
         <v>3000</v>
       </c>
       <c r="J14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K14" s="3">
         <v>13000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>80000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>50000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>20000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>31000</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>3000</v>
       </c>
       <c r="R14" s="3">
         <v>3000</v>
       </c>
       <c r="S14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T14" s="3">
         <v>26000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>7000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>14000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>15800</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>1000</v>
       </c>
       <c r="Z14" s="3">
         <v>1000</v>
@@ -1285,13 +1304,16 @@
         <v>1000</v>
       </c>
       <c r="AB14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC14" s="3">
         <v>34000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1373,8 +1395,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1401,174 +1426,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1646000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1399000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1206000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1322000</v>
       </c>
-      <c r="G17" s="3">
-        <v>1384000</v>
-      </c>
       <c r="H17" s="3">
+        <v>1338000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1308000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1548000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1424000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-3049000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1682000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5510000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1711000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1618000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1716000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1670000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1671000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1699000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>667000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2018000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1811000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1905000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1000900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2078000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1965000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1883000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8422000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2825000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E18" s="3">
         <v>131000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>144000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>199000</v>
       </c>
-      <c r="G18" s="3">
-        <v>137000</v>
-      </c>
       <c r="H18" s="3">
+        <v>168000</v>
+      </c>
+      <c r="I18" s="3">
         <v>369000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>461000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1079000</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>549000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>87000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>128000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>208000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>301000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>149000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>170000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>241000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>303000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>76000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>280500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>107000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>227000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>176000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>400000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-283800</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1598,8 +1630,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1624,12 +1657,12 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1681,16 +1714,19 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E21" s="3">
         <v>130000</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
@@ -1710,14 +1746,14 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>549000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5000</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
@@ -1764,8 +1800,11 @@
       <c r="AC21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1773,248 +1812,257 @@
         <v>48000</v>
       </c>
       <c r="E22" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F22" s="3">
         <v>43000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>46000</v>
       </c>
       <c r="G22" s="3">
         <v>46000</v>
       </c>
       <c r="H22" s="3">
+        <v>46000</v>
+      </c>
+      <c r="I22" s="3">
         <v>69000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>50000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>51000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>54000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>48000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>138000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>50000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>43000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>48000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>59000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>58000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>47000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>90000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>55000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>62000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>55000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>62300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>67000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>72000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>63000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>390000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>72100</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E23" s="3">
         <v>83000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>101000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>153000</v>
       </c>
-      <c r="G23" s="3">
-        <v>91000</v>
-      </c>
       <c r="H23" s="3">
+        <v>122000</v>
+      </c>
+      <c r="I23" s="3">
         <v>300000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>411000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1028000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1038000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>501000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-143000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-42000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>44000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>80000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>149000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>243000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>102000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>80000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>186000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>241000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>21000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>218200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>40000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>155000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>113000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>10000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-355900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-54000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>32000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10000</v>
       </c>
-      <c r="G24" s="3">
-        <v>7000</v>
-      </c>
       <c r="H24" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I24" s="3">
         <v>-202000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>40000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>112000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-48000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>55000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-72000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-6000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-264000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>33000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-41000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>45000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>42000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-40000</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>93000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-29000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-119400</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,174 +2144,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E26" s="3">
         <v>137000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>69000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>143000</v>
       </c>
-      <c r="G26" s="3">
-        <v>84000</v>
-      </c>
       <c r="H26" s="3">
+        <v>111000</v>
+      </c>
+      <c r="I26" s="3">
         <v>502000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>371000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>916000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1086000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>446000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-71000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-48000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>50000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>344000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>144000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>210000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>93000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>121000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>165000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>196000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>17000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>176200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>80000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>155000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>20000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>39000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-236500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E27" s="3">
         <v>190000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>193000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>64000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>54000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>398000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>143000</v>
+      </c>
+      <c r="K27" s="3">
+        <v>465000</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1072000</v>
+      </c>
+      <c r="M27" s="3">
+        <v>318000</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="O27" s="3">
         <v>27000</v>
       </c>
-      <c r="H27" s="3">
-        <v>398000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>143000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>465000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1072000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>318000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-136000</v>
-      </c>
-      <c r="N27" s="3">
-        <v>27000</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>30000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>334000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>111000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>184000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>84000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>57000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>142000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>138000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>17000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>94700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>15000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>103000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>19000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>10000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2345,13 +2402,16 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2363,73 +2423,76 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>5000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-1000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-6000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>14000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-58000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-363000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-93000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-128000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-1119000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-4000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>42000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-20000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>64000</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>28000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>429000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-3259000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>134000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>64000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-162000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-337000</v>
       </c>
-      <c r="AC29" s="3" t="s">
+      <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2511,8 +2574,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2594,8 +2660,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2620,12 +2689,12 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2677,91 +2746,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E33" s="3">
         <v>190000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>193000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>64000</v>
       </c>
-      <c r="G33" s="3">
-        <v>27000</v>
-      </c>
       <c r="H33" s="3">
+        <v>54000</v>
+      </c>
+      <c r="I33" s="3">
         <v>403000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>142000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>459000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1086000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>260000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-499000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-66000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-98000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-785000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>107000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>226000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>64000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>121000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>142000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>166000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>446000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3164300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>149000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>167000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-143000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-327000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2843,179 +2918,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E35" s="3">
         <v>190000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>193000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>64000</v>
       </c>
-      <c r="G35" s="3">
-        <v>27000</v>
-      </c>
       <c r="H35" s="3">
+        <v>54000</v>
+      </c>
+      <c r="I35" s="3">
         <v>403000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>142000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>459000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1086000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>260000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-499000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-66000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-98000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-785000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>107000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>226000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>64000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>121000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>142000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>166000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>446000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3164300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>149000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>167000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-143000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-327000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3045,8 +3129,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3076,91 +3161,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>824000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1007000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>935000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1039000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1125000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1573000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1818000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1850000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1316000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1723000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1136000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1149000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1085000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1249000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1450000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1541000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1340000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1568000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1885000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1620000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1597000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1435000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2072900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2713300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2531300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2229000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2951600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3242,31 +3331,34 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13341000</v>
+        <v>12438000</v>
       </c>
       <c r="E43" s="3">
+        <v>12426000</v>
+      </c>
+      <c r="F43" s="3">
         <v>13561000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13079000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13261000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13635000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13580000</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
@@ -3280,8 +3372,8 @@
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -3325,8 +3417,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3408,8 +3503,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3491,8 +3589,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3574,91 +3675,97 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>37723000</v>
+        <v>37813000</v>
       </c>
       <c r="E47" s="3">
+        <v>38086000</v>
+      </c>
+      <c r="F47" s="3">
         <v>38408000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>39911000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>41978000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>44387000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>47491000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>45341000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>44660000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>54841000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>54357000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>54264000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>51772000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>52700000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>67153000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>65417000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>64204000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>49918000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>62277000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>62241000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>63014000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>64644000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>93681000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>90575600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>89116700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>61153000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>93051100</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3716,17 +3823,17 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
+      <c r="V48" s="3">
+        <v>0</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y48" s="3">
         <v>107000</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>8</v>
@@ -3734,25 +3841,28 @@
       <c r="AA48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC48" s="3">
         <v>112300</v>
       </c>
-      <c r="AC48" s="3" t="s">
+      <c r="AD48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1551000</v>
+      </c>
+      <c r="E49" s="3">
         <v>958000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>824000</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
@@ -3769,8 +3879,8 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -3799,32 +3909,35 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
+      <c r="V49" s="3">
+        <v>0</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y49" s="3">
         <v>186000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>196000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>197800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>208000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>219500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>227300</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3906,8 +4019,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3989,91 +4105,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1924000</v>
+        <v>2122000</v>
       </c>
       <c r="E52" s="3">
+        <v>2223000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1931000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1795000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1405000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>986000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>691000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>690000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>935000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>21889000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>21494000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>21249000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>20902000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>22953000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>401000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>576000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>864000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>21655000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1122000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1266000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>58102000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>59833000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1663700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1756900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2055700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>66368800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1128100</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4155,91 +4277,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>147652000</v>
+        <v>151208000</v>
       </c>
       <c r="E54" s="3">
+        <v>146606000</v>
+      </c>
+      <c r="F54" s="3">
         <v>144048000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>147520000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>161806000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>171262000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>168417000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>168194000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>162861000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>180518000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>171466000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>166934000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>155732000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>168990000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>166850000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>165162000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>161985000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>155430000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>165036000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>162740000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>219824000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>222532000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>226643900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>219838800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>217025500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>214585000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>218622200</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4269,8 +4397,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4300,8 +4429,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4383,19 +4513,22 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>141000</v>
+        <v>143000</v>
       </c>
       <c r="E58" s="3">
         <v>141000</v>
       </c>
       <c r="F58" s="3">
-        <v>1000</v>
+        <v>141000</v>
       </c>
       <c r="G58" s="3">
         <v>1000</v>
@@ -4431,10 +4564,10 @@
         <v>1000</v>
       </c>
       <c r="R58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S58" s="3">
         <v>97000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1000</v>
       </c>
       <c r="T58" s="3">
         <v>1000</v>
@@ -4446,111 +4579,117 @@
         <v>1000</v>
       </c>
       <c r="W58" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>337000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>336600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>735900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>735500</v>
-      </c>
-      <c r="AB58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>85897000</v>
+      </c>
+      <c r="E59" s="3">
         <v>81476000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>77358000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>81237000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>94232000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>101616000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>97995000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>98102000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>93872000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>90905000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>83454000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>80129000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>71002000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>83043000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>82049000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>81887000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>79627000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>71297000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>83034000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>80599000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>79668000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>79471000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>111603200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>105725300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>103261300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>67883100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>101627000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4632,8 +4771,11 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4644,162 +4786,168 @@
         <v>2094000</v>
       </c>
       <c r="F61" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="G61" s="3">
         <v>2385000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2406000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2595000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2970000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>2969000</v>
       </c>
       <c r="K61" s="3">
         <v>2969000</v>
       </c>
       <c r="L61" s="3">
+        <v>2969000</v>
+      </c>
+      <c r="M61" s="3">
         <v>3044000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>3043000</v>
       </c>
       <c r="N61" s="3">
         <v>3043000</v>
       </c>
       <c r="O61" s="3">
-        <v>3042000</v>
+        <v>3043000</v>
       </c>
       <c r="P61" s="3">
         <v>3042000</v>
       </c>
       <c r="Q61" s="3">
-        <v>3041000</v>
+        <v>3042000</v>
       </c>
       <c r="R61" s="3">
         <v>3041000</v>
       </c>
       <c r="S61" s="3">
-        <v>3136000</v>
+        <v>3041000</v>
       </c>
       <c r="T61" s="3">
         <v>3136000</v>
       </c>
       <c r="U61" s="3">
+        <v>3136000</v>
+      </c>
+      <c r="V61" s="3">
         <v>3459000</v>
-      </c>
-      <c r="V61" s="3">
-        <v>3458000</v>
       </c>
       <c r="W61" s="3">
         <v>3458000</v>
       </c>
       <c r="X61" s="3">
+        <v>3458000</v>
+      </c>
+      <c r="Y61" s="3">
         <v>3123000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3122200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2726200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2725700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3550000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3548500</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3">
         <v>196000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>205000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>213000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>226000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>274000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>304000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>333000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18976000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18607000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18465000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18414000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18966000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>409000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>445000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>465000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>18454000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>516000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>527000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>56998000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>58827000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>542200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>636800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>656000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>60250000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>631400</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4881,8 +5029,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4964,8 +5115,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5047,91 +5201,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>143183000</v>
+        <v>147254000</v>
       </c>
       <c r="E66" s="3">
+        <v>143257000</v>
+      </c>
+      <c r="F66" s="3">
         <v>139955000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>143004000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>155608000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>163009000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>160028000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>159832000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>154930000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>170408000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>161809000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>157386000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>148305000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>159651000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>156299000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>155098000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>152920000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>147217000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>156513000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>154280000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>210446000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>212523000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>212990900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>206486600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>204135100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>201590000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>203416200</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5161,8 +5321,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5244,8 +5405,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5327,8 +5491,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5410,8 +5577,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5493,91 +5663,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-342000</v>
+        <v>-118000</v>
       </c>
       <c r="E72" s="3">
+        <v>-201000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-994000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1201000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1269000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1310000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3238000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3394000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3857000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4957000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5152000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4833000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4766000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4718000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11665000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11785000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12011000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11732000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11853000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11995000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-12161000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-12719000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-9655600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-9804200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-9971400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-9742000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-9310300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5659,8 +5835,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5742,8 +5921,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5825,91 +6007,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4469000</v>
+        <v>3954000</v>
       </c>
       <c r="E76" s="3">
+        <v>3349000</v>
+      </c>
+      <c r="F76" s="3">
         <v>4093000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4516000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6198000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8253000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8389000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8362000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7931000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10110000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9657000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9548000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7427000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9339000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10551000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10064000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9065000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8213000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8523000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8460000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9378000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10009000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13653000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13352200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>12890400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>12995000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>15206000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5991,179 +6179,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E81" s="3">
         <v>190000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>193000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>64000</v>
       </c>
-      <c r="G81" s="3">
-        <v>27000</v>
-      </c>
       <c r="H81" s="3">
+        <v>54000</v>
+      </c>
+      <c r="I81" s="3">
         <v>403000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>142000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>459000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1086000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>260000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-499000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-66000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-98000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-785000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>107000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>226000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>64000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>121000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>142000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>166000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>446000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3164300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>149000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>167000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-143000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-327000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6193,8 +6390,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6276,8 +6474,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6359,8 +6560,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6442,8 +6646,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6525,8 +6732,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6608,8 +6818,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6691,91 +6904,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E89" s="3">
         <v>219000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>418000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>296000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>419000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>140000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>121000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>747000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-936000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>421000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>788000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>508000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-76000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>459000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>302000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>418000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>131000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>234000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>580000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>653000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>401000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>456000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>570000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>605800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-49800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3591000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>819700</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6805,8 +7024,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6870,26 +7090,29 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-9700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-15700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-10400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-66700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6971,8 +7194,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7054,91 +7280,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>472000</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-372000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1171000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-403000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-578000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>181000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>670000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-636000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1825000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-139000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-811000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-374000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-954000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>117000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-44000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-333000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-36000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-149000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>236000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-145000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1581300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-892500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>190800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-3683000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1924000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7168,8 +7400,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7177,82 +7410,85 @@
         <v>-20000</v>
       </c>
       <c r="E96" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-22000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-20000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-21000</v>
       </c>
       <c r="H96" s="3">
         <v>-21000</v>
       </c>
       <c r="I96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-19000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-20000</v>
       </c>
       <c r="K96" s="3">
         <v>-20000</v>
       </c>
       <c r="L96" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-18000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-58000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-19000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-20000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-20000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-2000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-1000</v>
       </c>
       <c r="T96" s="3">
         <v>-1000</v>
       </c>
       <c r="U96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-2000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-2000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-1900</v>
       </c>
       <c r="AA96" s="3">
         <v>-1900</v>
       </c>
       <c r="AB96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-8000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7334,8 +7570,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7417,8 +7656,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7500,91 +7742,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-811000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-147000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-150000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>732000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-407000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-55000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>391000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-333000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-268000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>588000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1114000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-158000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>727000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>11000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>546000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-86000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-592000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-152000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-289000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-926000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-397000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-562400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>414200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>556600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-753400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>495400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7666,87 +7914,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-183000</v>
+      </c>
+      <c r="E102" s="3">
         <v>72000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-104000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-143000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-391000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-493000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-88000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>595000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-534000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>373000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>77000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>211000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-160000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>96000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-106000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>449000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-505000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-251000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>255000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-422000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>240000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-251200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-600500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>269100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-612400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>398000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1033000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>VOYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,365 +665,377 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1871000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1835000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1530000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1350000</v>
       </c>
-      <c r="G8" s="3">
-        <v>1521000</v>
-      </c>
       <c r="H8" s="3">
+        <v>1524000</v>
+      </c>
+      <c r="I8" s="3">
         <v>1506000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1677000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2009000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2503000</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2231000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5505000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1719000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1705000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1844000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1878000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1972000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1848000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>837000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2259000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2114000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1981000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1281400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2185000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2192000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2059000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>8822000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2541200</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E9" s="3">
         <v>59000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>30000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>67000</v>
       </c>
       <c r="H9" s="3">
         <v>62000</v>
       </c>
       <c r="I9" s="3">
+        <v>62000</v>
+      </c>
+      <c r="J9" s="3">
         <v>40000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>190000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>539000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>336000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>76000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>46000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>36000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>43000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>57000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>-27000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>86000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>74000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>100000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>-34400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>209000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>195000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>64000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>415000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>180700</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1814000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1776000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1500000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1340000</v>
       </c>
-      <c r="G10" s="3">
-        <v>1454000</v>
-      </c>
       <c r="H10" s="3">
+        <v>1462000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1444000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1637000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1819000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2477000</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2215000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5169000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1700000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1629000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1798000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1842000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1929000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1791000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>864000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2173000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2040000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1881000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1315800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1976000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1997000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1995000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>8407000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2360500</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1066,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1140,8 +1153,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,79 +1242,82 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E14" s="3">
         <v>45000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>3000</v>
       </c>
       <c r="J14" s="3">
         <v>3000</v>
       </c>
       <c r="K14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L14" s="3">
         <v>13000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>80000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>50000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>20000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>31000</v>
-      </c>
-      <c r="R14" s="3">
-        <v>3000</v>
       </c>
       <c r="S14" s="3">
         <v>3000</v>
       </c>
       <c r="T14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U14" s="3">
         <v>26000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>6000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>7000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>14000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>15800</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>1000</v>
       </c>
       <c r="AA14" s="3">
         <v>1000</v>
@@ -1307,13 +1326,16 @@
         <v>1000</v>
       </c>
       <c r="AC14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD14" s="3">
         <v>34000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1398,8 +1420,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1427,180 +1452,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1514000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1646000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1399000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1206000</v>
       </c>
-      <c r="G17" s="3">
-        <v>1322000</v>
-      </c>
       <c r="H17" s="3">
+        <v>1326000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1338000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1308000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1548000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1424000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-3049000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1682000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5510000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1711000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1618000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1716000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1670000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1671000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1699000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>667000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2018000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1811000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1905000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1000900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2078000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1965000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1883000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>8422000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2825000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>357000</v>
+      </c>
+      <c r="E18" s="3">
         <v>189000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>131000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>144000</v>
       </c>
-      <c r="G18" s="3">
-        <v>199000</v>
-      </c>
       <c r="H18" s="3">
+        <v>198000</v>
+      </c>
+      <c r="I18" s="3">
         <v>168000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>369000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>461000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1079000</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>549000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>87000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>128000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>208000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>301000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>149000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>170000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>241000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>303000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>76000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>280500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>107000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>227000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>176000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>400000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-283800</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1631,8 +1663,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1660,12 +1693,12 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1717,19 +1750,22 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>359000</v>
+      </c>
+      <c r="E21" s="3">
         <v>209000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>130000</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
@@ -1737,8 +1773,8 @@
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
+      <c r="I21" s="3">
+        <v>179000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1749,14 +1785,14 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>549000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5000</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
@@ -1803,266 +1839,278 @@
       <c r="AD21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>48000</v>
+        <v>94000</v>
       </c>
       <c r="E22" s="3">
         <v>48000</v>
       </c>
       <c r="F22" s="3">
+        <v>48000</v>
+      </c>
+      <c r="G22" s="3">
         <v>43000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>46000</v>
       </c>
       <c r="H22" s="3">
         <v>46000</v>
       </c>
       <c r="I22" s="3">
+        <v>46000</v>
+      </c>
+      <c r="J22" s="3">
         <v>69000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>50000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>51000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>54000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>48000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>138000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>50000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>43000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>48000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>59000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>58000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>47000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>90000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>55000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>62000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>55000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>62300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>67000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>72000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>63000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>390000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>72100</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>263000</v>
+      </c>
+      <c r="E23" s="3">
         <v>141000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>83000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>101000</v>
       </c>
-      <c r="G23" s="3">
-        <v>153000</v>
-      </c>
       <c r="H23" s="3">
+        <v>152000</v>
+      </c>
+      <c r="I23" s="3">
         <v>122000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>411000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1028000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1038000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>501000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-143000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-42000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>44000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>80000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>149000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>243000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>102000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>80000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>186000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>241000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>21000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>218200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>40000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>155000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>113000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>10000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-355900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E24" s="3">
         <v>12000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-54000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>32000</v>
       </c>
-      <c r="G24" s="3">
-        <v>10000</v>
-      </c>
       <c r="H24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I24" s="3">
         <v>11000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-202000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>40000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>112000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-48000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>55000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-72000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-264000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>33000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-41000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>21000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>45000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>42000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-40000</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
       <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
         <v>93000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-29000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-119400</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2147,180 +2195,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>235000</v>
+      </c>
+      <c r="E26" s="3">
         <v>129000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>137000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>69000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>143000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>111000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>502000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>371000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>916000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1086000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>446000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-71000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-48000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>50000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>344000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>144000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>210000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>93000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>121000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>165000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>196000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>17000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>176200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>80000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>155000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>20000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>39000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-236500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E27" s="3">
         <v>69000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>190000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>193000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>64000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>54000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>398000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>143000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>465000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1072000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>318000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-136000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>27000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>30000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>334000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>111000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>184000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>84000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>57000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>142000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>138000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>17000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>94700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>15000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>103000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>19000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>10000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2405,16 +2462,19 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2426,73 +2486,76 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>5000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-6000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>14000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-58000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-363000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-93000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-128000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-1119000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-4000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>42000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-20000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>64000</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>28000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>429000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-3259000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>134000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>64000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-162000</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-337000</v>
       </c>
-      <c r="AD29" s="3" t="s">
+      <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2577,8 +2640,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2663,8 +2729,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2692,12 +2761,12 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2749,94 +2818,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E33" s="3">
         <v>69000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>190000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>193000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>64000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>54000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>403000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>142000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>459000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1086000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>260000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-499000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-66000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-98000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-785000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>107000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>226000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>64000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>121000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>142000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>166000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>446000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3164300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>149000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>167000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-143000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-327000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2921,185 +2996,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E35" s="3">
         <v>69000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>190000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>193000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>64000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>54000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>403000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>142000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>459000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1086000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>260000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-499000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-66000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-98000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-785000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>107000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>226000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>64000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>121000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>142000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>166000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>446000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3164300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>149000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>167000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-143000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-327000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3130,8 +3214,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3162,94 +3247,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1349000</v>
+      </c>
+      <c r="E41" s="3">
         <v>824000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1007000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>935000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1039000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1125000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1573000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1818000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1850000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1316000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1723000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1136000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1149000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1085000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1249000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1450000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1541000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1340000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1568000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1885000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1620000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1597000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1435000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2072900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2713300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2531300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2229000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2951600</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3334,34 +3423,37 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12131000</v>
+      </c>
+      <c r="E43" s="3">
         <v>12438000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12426000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13561000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13079000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13261000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13635000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13580000</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>8</v>
@@ -3375,8 +3467,8 @@
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -3420,8 +3512,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3506,8 +3601,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3592,8 +3690,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3678,94 +3779,100 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>36406000</v>
+      </c>
+      <c r="E47" s="3">
         <v>37813000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>38086000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>38408000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>39911000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>41978000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>44387000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>47491000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>45341000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>44660000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>54841000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>54357000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>54264000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>51772000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>52700000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>67153000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>65417000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>64204000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>49918000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>62277000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>62241000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>63014000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>64644000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>93681000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>90575600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>89116700</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>61153000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>93051100</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3826,17 +3933,17 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z48" s="3">
         <v>107000</v>
-      </c>
-      <c r="Z48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>8</v>
@@ -3844,28 +3951,31 @@
       <c r="AB48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AC48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD48" s="3">
         <v>112300</v>
       </c>
-      <c r="AD48" s="3" t="s">
+      <c r="AE48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1554000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1551000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>958000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>824000</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
@@ -3882,8 +3992,8 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3912,32 +4022,35 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
+      <c r="W49" s="3">
+        <v>0</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z49" s="3">
         <v>186000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>196000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>197800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>208000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>219500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>227300</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4022,8 +4135,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4108,94 +4224,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2161000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2122000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2223000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1931000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1795000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1405000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>986000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>691000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>690000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>935000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>21889000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>21494000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>21249000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>20902000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>22953000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>401000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>576000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>864000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>21655000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1122000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1266000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>58102000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>59833000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1663700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1756900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2055700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>66368800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1128100</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4280,94 +4402,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>154616000</v>
+      </c>
+      <c r="E54" s="3">
         <v>151208000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>146606000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>144048000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>147520000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>161806000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>171262000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>168417000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>168194000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>162861000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>180518000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>171466000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>166934000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>155732000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>168990000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>166850000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>165162000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>161985000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>155430000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>165036000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>162740000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>219824000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>222532000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>226643900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>219838800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>217025500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>214585000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>218622200</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4398,8 +4526,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4430,8 +4559,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4516,8 +4646,11 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4525,13 +4658,13 @@
         <v>143000</v>
       </c>
       <c r="E58" s="3">
-        <v>141000</v>
+        <v>143000</v>
       </c>
       <c r="F58" s="3">
         <v>141000</v>
       </c>
       <c r="G58" s="3">
-        <v>1000</v>
+        <v>141000</v>
       </c>
       <c r="H58" s="3">
         <v>1000</v>
@@ -4567,10 +4700,10 @@
         <v>1000</v>
       </c>
       <c r="S58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T58" s="3">
         <v>97000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>1000</v>
       </c>
       <c r="U58" s="3">
         <v>1000</v>
@@ -4582,114 +4715,120 @@
         <v>1000</v>
       </c>
       <c r="X58" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>337000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>336600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>735900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>735500</v>
-      </c>
-      <c r="AC58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AD58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>90152000</v>
+      </c>
+      <c r="E59" s="3">
         <v>85897000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>81476000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>77358000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>81237000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>94232000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>101616000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>97995000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>98102000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>93872000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>90905000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>83454000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>80129000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>71002000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>83043000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>82049000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>81887000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>79627000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>71297000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>83034000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>80599000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>79668000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>79471000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>111603200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>105725300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>103261300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>67883100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>101627000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4774,13 +4913,16 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2094000</v>
+        <v>2095000</v>
       </c>
       <c r="E61" s="3">
         <v>2094000</v>
@@ -4789,79 +4931,82 @@
         <v>2094000</v>
       </c>
       <c r="G61" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="H61" s="3">
         <v>2385000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2406000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2595000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2970000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>2969000</v>
       </c>
       <c r="L61" s="3">
         <v>2969000</v>
       </c>
       <c r="M61" s="3">
+        <v>2969000</v>
+      </c>
+      <c r="N61" s="3">
         <v>3044000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>3043000</v>
       </c>
       <c r="O61" s="3">
         <v>3043000</v>
       </c>
       <c r="P61" s="3">
-        <v>3042000</v>
+        <v>3043000</v>
       </c>
       <c r="Q61" s="3">
         <v>3042000</v>
       </c>
       <c r="R61" s="3">
-        <v>3041000</v>
+        <v>3042000</v>
       </c>
       <c r="S61" s="3">
         <v>3041000</v>
       </c>
       <c r="T61" s="3">
-        <v>3136000</v>
+        <v>3041000</v>
       </c>
       <c r="U61" s="3">
         <v>3136000</v>
       </c>
       <c r="V61" s="3">
+        <v>3136000</v>
+      </c>
+      <c r="W61" s="3">
         <v>3459000</v>
-      </c>
-      <c r="W61" s="3">
-        <v>3458000</v>
       </c>
       <c r="X61" s="3">
         <v>3458000</v>
       </c>
       <c r="Y61" s="3">
+        <v>3458000</v>
+      </c>
+      <c r="Z61" s="3">
         <v>3123000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3122200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2726200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2725700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3550000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>3548500</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4871,83 +5016,86 @@
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3">
         <v>196000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>205000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>213000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>226000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>274000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>304000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>333000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18976000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18607000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18465000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18414000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>18966000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>409000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>445000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>465000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>18454000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>516000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>527000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>56998000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>58827000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>542200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>636800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>656000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>60250000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>631400</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5032,8 +5180,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5118,8 +5269,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5204,94 +5358,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>150919000</v>
+      </c>
+      <c r="E66" s="3">
         <v>147254000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>143257000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>139955000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>143004000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>155608000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>163009000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>160028000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>159832000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>154930000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>170408000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>161809000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>157386000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>148305000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>159651000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>156299000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>155098000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>152920000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>147217000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>156513000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>154280000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>210446000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>212523000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>212990900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>206486600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>204135100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>201590000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>203416200</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5322,8 +5482,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5408,8 +5569,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5494,8 +5658,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5580,8 +5747,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5666,94 +5836,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-118000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-201000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-994000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1201000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1269000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1310000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3238000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3394000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3857000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4957000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5152000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4833000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4766000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4718000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11665000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11785000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12011000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11732000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11853000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-11995000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-12161000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-12719000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-9655600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-9804200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-9971400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-9742000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-9310300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5838,8 +6014,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5924,8 +6103,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6010,94 +6192,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3697000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3954000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3349000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4093000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4516000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6198000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8253000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8389000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8362000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7931000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10110000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9657000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9548000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7427000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9339000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10551000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10064000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9065000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8213000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8523000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8460000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9378000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10009000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13653000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>13352200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>12890400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>12995000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>15206000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6182,185 +6370,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E81" s="3">
         <v>69000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>190000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>193000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>64000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>54000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>403000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>142000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>459000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1086000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>260000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-499000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-66000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-98000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-785000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>107000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>226000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>64000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>121000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>142000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>166000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>446000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3164300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>149000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>167000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-143000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-327000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6391,8 +6588,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6477,8 +6675,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6563,8 +6764,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6649,8 +6853,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6735,8 +6942,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6821,8 +7031,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6907,94 +7120,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>715000</v>
+      </c>
+      <c r="E89" s="3">
         <v>156000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>219000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>418000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>296000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>419000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>140000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>121000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>747000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-936000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>421000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>788000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>508000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>459000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>302000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>418000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>131000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>234000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>580000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>653000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>401000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>456000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>570000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>605800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-49800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>3591000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>819700</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7025,8 +7244,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7093,26 +7313,29 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-9700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-15700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-10400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-66700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7197,8 +7420,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7283,94 +7509,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>797000</v>
+      </c>
+      <c r="E94" s="3">
         <v>472000</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-372000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1171000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-403000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-578000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>181000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>670000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-636000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1825000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-139000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-811000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-374000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-954000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>117000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-44000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-333000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-36000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-149000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>236000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-145000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1581300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-892500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>190800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-3683000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1924000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7401,94 +7633,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-20000</v>
+        <v>-23000</v>
       </c>
       <c r="E96" s="3">
         <v>-20000</v>
       </c>
       <c r="F96" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-22000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-20000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-21000</v>
       </c>
       <c r="I96" s="3">
         <v>-21000</v>
       </c>
       <c r="J96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-19000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-20000</v>
       </c>
       <c r="L96" s="3">
         <v>-20000</v>
       </c>
       <c r="M96" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-18000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-58000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-19000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-21000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-20000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-2000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-1000</v>
       </c>
       <c r="U96" s="3">
         <v>-1000</v>
       </c>
       <c r="V96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-2000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1700</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-1900</v>
       </c>
       <c r="AB96" s="3">
         <v>-1900</v>
       </c>
       <c r="AC96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-8000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7573,8 +7809,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7659,8 +7898,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7745,94 +7987,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-987000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-811000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-147000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-150000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>732000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-407000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-55000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>391000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-333000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-268000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>588000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1114000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-158000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>727000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>11000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>546000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-86000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-592000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-152000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-289000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-926000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-397000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-562400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>414200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>556600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-753400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>495400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7917,90 +8165,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>525000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-183000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>72000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-104000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-143000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-391000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-493000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-88000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>595000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-534000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>373000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>77000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>211000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-160000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>96000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-106000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>449000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-505000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-251000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>255000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-422000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>240000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-251200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-600500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>269100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-612400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>398000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-1033000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VOYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>VOYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,205 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="32" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1823000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1871000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1835000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1530000</v>
       </c>
-      <c r="G8" s="3">
-        <v>1350000</v>
-      </c>
       <c r="H8" s="3">
+        <v>1345000</v>
+      </c>
+      <c r="I8" s="3">
         <v>1524000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1506000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1677000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2009000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2503000</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2231000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5505000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1719000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1705000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1844000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1878000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1972000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1848000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>837000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2259000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2114000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1981000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1281400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2185000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2192000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2059000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>8822000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>2541200</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -865,177 +871,183 @@
         <v>57000</v>
       </c>
       <c r="E9" s="3">
+        <v>57000</v>
+      </c>
+      <c r="F9" s="3">
         <v>59000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>30000</v>
       </c>
-      <c r="G9" s="3">
-        <v>10000</v>
-      </c>
       <c r="H9" s="3">
-        <v>62000</v>
+        <v>60000</v>
       </c>
       <c r="I9" s="3">
         <v>62000</v>
       </c>
       <c r="J9" s="3">
+        <v>62000</v>
+      </c>
+      <c r="K9" s="3">
         <v>40000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>190000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>26000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>539000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>336000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>76000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>46000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>36000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>43000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>57000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>-27000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>86000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>74000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>100000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>-34400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>209000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>195000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>64000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>415000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>180700</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1766000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1814000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1776000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1500000</v>
       </c>
-      <c r="G10" s="3">
-        <v>1340000</v>
-      </c>
       <c r="H10" s="3">
+        <v>1285000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1462000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1444000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1637000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1819000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2477000</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2215000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5169000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1700000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1629000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1798000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1842000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1929000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1791000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>864000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2173000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2040000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1881000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1315800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1976000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1997000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1995000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>8407000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>2360500</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1067,8 +1079,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1156,8 +1169,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,82 +1261,85 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E14" s="3">
         <v>34000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>45000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8000</v>
       </c>
-      <c r="G14" s="3">
-        <v>12000</v>
-      </c>
       <c r="H14" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3000</v>
       </c>
       <c r="K14" s="3">
         <v>3000</v>
       </c>
       <c r="L14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M14" s="3">
         <v>13000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>80000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>50000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>20000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>31000</v>
-      </c>
-      <c r="S14" s="3">
-        <v>3000</v>
       </c>
       <c r="T14" s="3">
         <v>3000</v>
       </c>
       <c r="U14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="V14" s="3">
         <v>26000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>6000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>7000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>14000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>15800</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>1000</v>
       </c>
       <c r="AB14" s="3">
         <v>1000</v>
@@ -1329,13 +1348,16 @@
         <v>1000</v>
       </c>
       <c r="AD14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE14" s="3">
         <v>34000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1423,8 +1445,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1453,186 +1478,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1575000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1514000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1646000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1399000</v>
       </c>
-      <c r="G17" s="3">
-        <v>1206000</v>
-      </c>
       <c r="H17" s="3">
+        <v>1231000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1326000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1338000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1308000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1548000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1424000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-3049000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1682000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5510000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1711000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1618000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1716000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1670000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1671000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1699000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>667000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2018000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1811000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1905000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1000900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2078000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1965000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1883000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>8422000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>2825000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E18" s="3">
         <v>357000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>189000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>131000</v>
       </c>
-      <c r="G18" s="3">
-        <v>144000</v>
-      </c>
       <c r="H18" s="3">
+        <v>114000</v>
+      </c>
+      <c r="I18" s="3">
         <v>198000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>168000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>369000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>461000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1079000</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>549000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>87000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>128000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>208000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>301000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>149000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>170000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>241000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>303000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>76000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>280500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>107000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>227000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>176000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>400000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-283800</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1664,8 +1696,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1696,12 +1729,12 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1753,31 +1786,34 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E21" s="3">
         <v>359000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>209000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>130000</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
         <v>179000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1788,14 +1824,14 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>549000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5000</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
@@ -1842,275 +1878,287 @@
       <c r="AE21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E22" s="3">
         <v>94000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>48000</v>
       </c>
       <c r="F22" s="3">
         <v>48000</v>
       </c>
       <c r="G22" s="3">
+        <v>48000</v>
+      </c>
+      <c r="H22" s="3">
         <v>43000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>46000</v>
       </c>
       <c r="I22" s="3">
         <v>46000</v>
       </c>
       <c r="J22" s="3">
+        <v>46000</v>
+      </c>
+      <c r="K22" s="3">
         <v>69000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>50000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>51000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>54000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>48000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>138000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>50000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>43000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>48000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>59000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>58000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>47000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>90000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>55000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>62000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>55000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>62300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>67000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>72000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>63000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>390000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>72100</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E23" s="3">
         <v>263000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>141000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>83000</v>
       </c>
-      <c r="G23" s="3">
-        <v>101000</v>
-      </c>
       <c r="H23" s="3">
+        <v>71000</v>
+      </c>
+      <c r="I23" s="3">
         <v>152000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>122000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>411000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1028000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1038000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>501000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-143000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>44000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>80000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>149000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>243000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>102000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>80000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>186000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>241000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>21000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>218200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>40000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>155000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>113000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>10000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-355900</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E24" s="3">
         <v>28000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-54000</v>
       </c>
-      <c r="G24" s="3">
-        <v>32000</v>
-      </c>
       <c r="H24" s="3">
+        <v>29000</v>
+      </c>
+      <c r="I24" s="3">
         <v>9000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-202000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>40000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>112000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-48000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>55000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-72000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-6000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-264000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>33000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-41000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>21000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>45000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>42000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-40000</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
       <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
         <v>93000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-29000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-119400</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,186 +2246,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E26" s="3">
         <v>235000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>129000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>137000</v>
       </c>
-      <c r="G26" s="3">
-        <v>69000</v>
-      </c>
       <c r="H26" s="3">
+        <v>42000</v>
+      </c>
+      <c r="I26" s="3">
         <v>143000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>111000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>502000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>371000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>916000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1086000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>446000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-71000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-48000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>50000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>344000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>144000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>210000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>93000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>121000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>165000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>196000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>17000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>176200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>80000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>155000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>20000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>39000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-236500</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E27" s="3">
         <v>154000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>69000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>190000</v>
       </c>
-      <c r="G27" s="3">
-        <v>193000</v>
-      </c>
       <c r="H27" s="3">
+        <v>166000</v>
+      </c>
+      <c r="I27" s="3">
         <v>64000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>54000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>398000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>143000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>465000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1072000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>318000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-136000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>27000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>30000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>334000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>111000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>184000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>84000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>57000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>142000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>138000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>17000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>94700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>15000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>103000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>19000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>10000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2465,8 +2522,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2476,8 +2536,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2489,73 +2549,76 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>5000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-6000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>14000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-58000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-363000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-93000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-128000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-1119000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-4000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>42000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-20000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>64000</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>28000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>429000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-3259000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>134000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>64000</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-162000</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>-337000</v>
       </c>
-      <c r="AE29" s="3" t="s">
+      <c r="AF29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2643,8 +2706,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2732,8 +2798,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2764,12 +2833,12 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2821,97 +2890,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E33" s="3">
         <v>154000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>69000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>190000</v>
       </c>
-      <c r="G33" s="3">
-        <v>193000</v>
-      </c>
       <c r="H33" s="3">
+        <v>166000</v>
+      </c>
+      <c r="I33" s="3">
         <v>64000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>54000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>403000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>142000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>459000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1086000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>260000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-499000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-66000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-98000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-785000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>107000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>226000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>64000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>121000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>142000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>166000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>446000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-3164300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>149000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>167000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-143000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-327000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2999,191 +3074,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E35" s="3">
         <v>154000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>69000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>190000</v>
       </c>
-      <c r="G35" s="3">
-        <v>193000</v>
-      </c>
       <c r="H35" s="3">
+        <v>166000</v>
+      </c>
+      <c r="I35" s="3">
         <v>64000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>54000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>403000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>142000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>459000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1086000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>260000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-499000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-66000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-98000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-785000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>107000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>226000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>64000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>121000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>142000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>166000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>446000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-3164300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>149000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>167000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-143000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-327000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3215,8 +3299,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3248,97 +3333,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>917000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1349000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>824000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1007000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>935000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1039000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1125000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1573000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1818000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1850000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1316000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1723000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1136000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1149000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1085000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1249000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1450000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1541000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1340000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1568000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1885000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1620000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1597000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1435000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2072900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2713300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2531300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2229000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>2951600</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3426,37 +3515,40 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11765000</v>
+      </c>
+      <c r="E43" s="3">
         <v>12131000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12438000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12426000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13561000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13079000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13261000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13635000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13580000</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
@@ -3470,8 +3562,8 @@
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -3515,8 +3607,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3604,8 +3699,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3693,8 +3791,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3782,97 +3883,103 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>34886000</v>
+      </c>
+      <c r="E47" s="3">
         <v>36406000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>37813000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>38086000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>38408000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>39911000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>41978000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>44387000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>47491000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>45341000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>44660000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>54841000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>54357000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>54264000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>51772000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>52700000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>67153000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>65417000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>64204000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>49918000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>62277000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>62241000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>63014000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>64644000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>93681000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>90575600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>89116700</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>61153000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>93051100</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3936,17 +4043,17 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
+      <c r="X48" s="3">
+        <v>0</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA48" s="3">
         <v>107000</v>
-      </c>
-      <c r="AA48" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>8</v>
@@ -3954,31 +4061,34 @@
       <c r="AC48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AD48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE48" s="3">
         <v>112300</v>
       </c>
-      <c r="AE48" s="3" t="s">
+      <c r="AF48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1648000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1554000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1551000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>958000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>824000</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
@@ -3995,8 +4105,8 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -4025,32 +4135,35 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
+      <c r="X49" s="3">
+        <v>0</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA49" s="3">
         <v>186000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>196000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>197800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>208000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>219500</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>227300</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4138,8 +4251,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4227,97 +4343,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2438000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2161000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2122000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2223000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1931000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1795000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1405000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>986000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>691000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>690000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>935000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>21889000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>21494000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>21249000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>20902000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>22953000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>401000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>576000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>864000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>21655000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1122000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1266000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>58102000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>59833000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1663700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1756900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2055700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>66368800</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>1128100</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4405,97 +4527,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>149265000</v>
+      </c>
+      <c r="E54" s="3">
         <v>154616000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>151208000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>146606000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>144048000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>147520000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>161806000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>171262000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>168417000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>168194000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>162861000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>180518000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>171466000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>166934000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>155732000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>168990000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>166850000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>165162000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>161985000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>155430000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>165036000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>162740000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>219824000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>222532000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>226643900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>219838800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>217025500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>214585000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>218622200</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4527,8 +4655,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4560,8 +4689,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4649,25 +4779,28 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>143000</v>
+        <v>2000</v>
       </c>
       <c r="E58" s="3">
         <v>143000</v>
       </c>
       <c r="F58" s="3">
-        <v>141000</v>
+        <v>143000</v>
       </c>
       <c r="G58" s="3">
         <v>141000</v>
       </c>
       <c r="H58" s="3">
-        <v>1000</v>
+        <v>141000</v>
       </c>
       <c r="I58" s="3">
         <v>1000</v>
@@ -4703,10 +4836,10 @@
         <v>1000</v>
       </c>
       <c r="T58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U58" s="3">
         <v>97000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>1000</v>
       </c>
       <c r="V58" s="3">
         <v>1000</v>
@@ -4718,117 +4851,123 @@
         <v>1000</v>
       </c>
       <c r="Y58" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>337000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>336600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>735900</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>735500</v>
-      </c>
-      <c r="AD58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AE58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>86681000</v>
+      </c>
+      <c r="E59" s="3">
         <v>90152000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>85897000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>81476000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>77358000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>81237000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>94232000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>101616000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>97995000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>98102000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>93872000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>90905000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>83454000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>80129000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>71002000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>83043000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>82049000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>81887000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>79627000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>71297000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>83034000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>80599000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>79668000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>79471000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>111603200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>105725300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>103261300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>67883100</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>101627000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4916,8 +5055,11 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4925,7 +5067,7 @@
         <v>2095000</v>
       </c>
       <c r="E61" s="3">
-        <v>2094000</v>
+        <v>2095000</v>
       </c>
       <c r="F61" s="3">
         <v>2094000</v>
@@ -4934,79 +5076,82 @@
         <v>2094000</v>
       </c>
       <c r="H61" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="I61" s="3">
         <v>2385000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2406000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2595000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2970000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>2969000</v>
       </c>
       <c r="M61" s="3">
         <v>2969000</v>
       </c>
       <c r="N61" s="3">
+        <v>2969000</v>
+      </c>
+      <c r="O61" s="3">
         <v>3044000</v>
-      </c>
-      <c r="O61" s="3">
-        <v>3043000</v>
       </c>
       <c r="P61" s="3">
         <v>3043000</v>
       </c>
       <c r="Q61" s="3">
-        <v>3042000</v>
+        <v>3043000</v>
       </c>
       <c r="R61" s="3">
         <v>3042000</v>
       </c>
       <c r="S61" s="3">
-        <v>3041000</v>
+        <v>3042000</v>
       </c>
       <c r="T61" s="3">
         <v>3041000</v>
       </c>
       <c r="U61" s="3">
-        <v>3136000</v>
+        <v>3041000</v>
       </c>
       <c r="V61" s="3">
         <v>3136000</v>
       </c>
       <c r="W61" s="3">
+        <v>3136000</v>
+      </c>
+      <c r="X61" s="3">
         <v>3459000</v>
-      </c>
-      <c r="X61" s="3">
-        <v>3458000</v>
       </c>
       <c r="Y61" s="3">
         <v>3458000</v>
       </c>
       <c r="Z61" s="3">
+        <v>3458000</v>
+      </c>
+      <c r="AA61" s="3">
         <v>3123000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3122200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2726200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2725700</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>3550000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>3548500</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5019,83 +5164,86 @@
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3">
         <v>196000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>205000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>213000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>226000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>274000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>304000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>333000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18976000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18607000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18465000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>18414000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>18966000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>409000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>445000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>465000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>18454000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>516000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>527000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>56998000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>58827000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>542200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>636800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>656000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>60250000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>631400</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5183,8 +5331,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5272,8 +5423,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5361,97 +5515,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>146138000</v>
+      </c>
+      <c r="E66" s="3">
         <v>150919000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>147254000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>143257000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>139955000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>143004000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>155608000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>163009000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>160028000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>159832000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>154930000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>170408000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>161809000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>157386000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>148305000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>159651000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>156299000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>155098000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>152920000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>147217000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>156513000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>154280000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>210446000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>212523000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>212990900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>206486600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>204135100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>201590000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>203416200</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5483,8 +5643,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5572,8 +5733,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5661,8 +5825,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5750,8 +5917,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5839,97 +6009,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E72" s="3">
         <v>40000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-118000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-201000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-994000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1201000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1269000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1310000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3238000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3394000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3857000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4957000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5152000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4833000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4766000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4718000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11665000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11785000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12011000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11732000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-11853000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-11995000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-12161000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-12719000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-9655600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-9804200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-9971400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-9742000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-9310300</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6017,8 +6193,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6106,8 +6285,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6195,97 +6377,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3127000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3697000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3954000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3349000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4093000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4516000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6198000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8253000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8389000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8362000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7931000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10110000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9657000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9548000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7427000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9339000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10551000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10064000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9065000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8213000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8523000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>8460000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9378000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10009000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>13653000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>13352200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>12890400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>12995000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>15206000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6373,191 +6561,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E81" s="3">
         <v>154000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>69000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>190000</v>
       </c>
-      <c r="G81" s="3">
-        <v>193000</v>
-      </c>
       <c r="H81" s="3">
+        <v>166000</v>
+      </c>
+      <c r="I81" s="3">
         <v>64000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>54000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>403000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>142000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>459000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1086000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>260000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-499000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-66000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-98000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-785000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>107000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>226000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>64000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>121000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>142000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>166000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>446000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-3164300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>149000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>167000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-143000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-327000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-248100</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6589,8 +6786,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6678,8 +6876,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6767,8 +6968,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6856,8 +7060,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6945,8 +7152,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7034,8 +7244,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7123,97 +7336,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>403000</v>
+      </c>
+      <c r="E89" s="3">
         <v>715000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>156000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>219000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>418000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>296000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>419000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>140000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>121000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>747000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-936000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>421000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>788000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>508000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-76000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>459000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>302000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>418000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>131000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>234000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>580000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>653000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>401000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>456000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>570000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>605800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-49800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>3591000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>819700</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7245,8 +7464,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7316,26 +7536,29 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="s">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-9700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-15700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-10400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-66700</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7423,8 +7646,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7512,97 +7738,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>430000</v>
+      </c>
+      <c r="E94" s="3">
         <v>797000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>472000</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-372000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1171000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-403000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-578000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>181000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>670000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-636000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1825000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-139000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-811000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-374000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-954000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>117000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-44000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-333000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-36000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-149000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>236000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-145000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1581300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-892500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>190800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-3683000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-1924000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7634,97 +7866,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-23000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-20000</v>
       </c>
       <c r="F96" s="3">
         <v>-20000</v>
       </c>
       <c r="G96" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-22000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-20000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-21000</v>
       </c>
       <c r="J96" s="3">
         <v>-21000</v>
       </c>
       <c r="K96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-19000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-20000</v>
       </c>
       <c r="M96" s="3">
         <v>-20000</v>
       </c>
       <c r="N96" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-18000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-58000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-20000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-21000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-20000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-2000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-1000</v>
       </c>
       <c r="V96" s="3">
         <v>-1000</v>
       </c>
       <c r="W96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-2000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1700</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>-1900</v>
       </c>
       <c r="AC96" s="3">
         <v>-1900</v>
       </c>
       <c r="AD96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-8000</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7812,8 +8048,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7901,8 +8140,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7990,97 +8232,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1265000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-987000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-811000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-147000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-150000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>732000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-407000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-55000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>391000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-333000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-268000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>588000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1114000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-158000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>727000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>11000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>546000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-86000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-592000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-152000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-289000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-926000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-397000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-562400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>414200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>556600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-753400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>495400</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>71300</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8168,93 +8416,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-432000</v>
+      </c>
+      <c r="E102" s="3">
         <v>525000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-183000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>72000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-104000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-143000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-391000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-493000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-88000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>595000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-534000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>373000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>77000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>211000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-160000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>96000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-106000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>449000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-505000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-251000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>255000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-422000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>240000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-251200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-600500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>269100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-612400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>398000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-1033000</v>
       </c>
     </row>
